--- a/Metadata.xlsx
+++ b/Metadata.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mnxan\OneDrive\Documents\GitHub\Huang_lechuan_todphilly\cleaned_data\final_mat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mnxan\OneDrive\Documents\GitHub\Huang_lechuan_todphilly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{342C6DA6-39C8-4275-8000-FE1141D59C3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0AC04BC-8FA0-4B13-BFAF-488E5902912B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
   <si>
     <t>Variable</t>
   </si>
@@ -140,9 +140,6 @@
 2. Divided results into 10 quantiles</t>
   </si>
   <si>
-    <t>job_surp</t>
-  </si>
-  <si>
     <t>Score for the district where the station is located</t>
   </si>
   <si>
@@ -220,6 +217,28 @@
   </si>
   <si>
     <t>DVRPC GIS Portal</t>
+  </si>
+  <si>
+    <t>Locality Score</t>
+  </si>
+  <si>
+    <t>Score assigned to the station based on its municipal level it is located</t>
+  </si>
+  <si>
+    <t>DVRPC GIS Portal
+Municipal Boundaries (Polygon)
+https://dvrpc-dvrpcgis.opendata.arcgis.com/datasets/dvrpcgis::municipal-boundaries-polygon/about</t>
+  </si>
+  <si>
+    <t>1. 10 for stations located in "Cities"
+2. 8 for station located in "Boroughs" (Equavalent to Towns in other states)
+3. 1-7 for stations located in "Townships" (Usually suburban area in a county) based its negatively quantiled size (the smaller township is, the higher scores are)</t>
+  </si>
+  <si>
+    <t>surp_sc</t>
+  </si>
+  <si>
+    <t>loc_sc</t>
   </si>
 </sst>
 </file>
@@ -263,12 +282,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -553,10 +575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E5"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -603,8 +625,8 @@
       <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>55</v>
+      <c r="E3" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
@@ -617,7 +639,7 @@
       <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
@@ -627,9 +649,9 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E5" s="4"/>
+        <v>53</v>
+      </c>
+      <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
@@ -642,7 +664,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="57" x14ac:dyDescent="0.45">
@@ -656,7 +678,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="270.75" x14ac:dyDescent="0.45">
@@ -689,91 +711,108 @@
         <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>44</v>
+      <c r="E10" s="4" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="4"/>
+        <v>31</v>
+      </c>
+      <c r="E11" s="5"/>
     </row>
     <row r="12" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" t="s">
         <v>33</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>34</v>
       </c>
-      <c r="C12" t="s">
-        <v>35</v>
-      </c>
       <c r="D12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="4"/>
+        <v>37</v>
+      </c>
+      <c r="E12" s="5"/>
     </row>
     <row r="13" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" t="s">
         <v>39</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>40</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" t="s">
         <v>45</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>46</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14" s="4"/>
+      <c r="E14" s="5"/>
     </row>
     <row r="15" spans="1:5" ht="57" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" t="s">
         <v>49</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>50</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E15" s="4"/>
+      <c r="E15" s="5"/>
+    </row>
+    <row r="16" spans="1:5" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="A16" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>57</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Metadata.xlsx
+++ b/Metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mnxan\OneDrive\Documents\GitHub\Huang_lechuan_todphilly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0AC04BC-8FA0-4B13-BFAF-488E5902912B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6E3C142-17F7-4689-805F-97273654BF45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -206,10 +206,6 @@
     <t>Likelyhood of not being gentrified after the TOD project</t>
   </si>
   <si>
-    <t>1. Gaps between quantiled medium income and quantiled poverty rate
-2. The little the gap, the higher probability it will not be gentrified</t>
-  </si>
-  <si>
     <t>Hand Clean</t>
   </si>
   <si>
@@ -239,6 +235,11 @@
   </si>
   <si>
     <t>loc_sc</t>
+  </si>
+  <si>
+    <t>1. Gaps between quantiled medium income and quantiled poverty rate
+2. Divided by quantiled house ownership rate
+3. Quantiled 2 into 10</t>
   </si>
 </sst>
 </file>
@@ -577,8 +578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -626,7 +627,7 @@
         <v>12</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
@@ -649,7 +650,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E5" s="5"/>
     </row>
@@ -664,7 +665,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="57" x14ac:dyDescent="0.45">
@@ -678,7 +679,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="270.75" x14ac:dyDescent="0.45">
@@ -722,7 +723,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
@@ -793,25 +794,25 @@
         <v>50</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="E15" s="5"/>
     </row>
     <row r="16" spans="1:5" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" t="s">
         <v>55</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/Metadata.xlsx
+++ b/Metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mnxan\OneDrive\Documents\GitHub\Huang_lechuan_todphilly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6E3C142-17F7-4689-805F-97273654BF45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62E11E5B-3487-4E7F-863C-B43ED7C1B8F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="66">
   <si>
     <t>Variable</t>
   </si>
@@ -100,9 +100,6 @@
     <t>accessibility score</t>
   </si>
   <si>
-    <t>10 quantiles of sum_ac</t>
-  </si>
-  <si>
     <t>operator</t>
   </si>
   <si>
@@ -240,6 +237,25 @@
     <t>1. Gaps between quantiled medium income and quantiled poverty rate
 2. Divided by quantiled house ownership rate
 3. Quantiled 2 into 10</t>
+  </si>
+  <si>
+    <t>slo_sc</t>
+  </si>
+  <si>
+    <t>Slope Score</t>
+  </si>
+  <si>
+    <t>Score for the slope around the station</t>
+  </si>
+  <si>
+    <t>ranges of sum_ac cut into 10</t>
+  </si>
+  <si>
+    <t>1. Get slope using DEM
+2. Cutting range into 10</t>
+  </si>
+  <si>
+    <t>USGS Earthexplorer</t>
   </si>
 </sst>
 </file>
@@ -283,12 +299,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -576,10 +595,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -626,8 +645,8 @@
       <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>53</v>
+      <c r="E3" s="6" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
@@ -640,46 +659,46 @@
       <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="5"/>
+      <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E5" s="5"/>
+        <v>51</v>
+      </c>
+      <c r="E5" s="6"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="57" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
         <v>21</v>
       </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
       <c r="C7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="270.75" x14ac:dyDescent="0.45">
@@ -701,118 +720,135 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
         <v>27</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>43</v>
+      <c r="E10" s="5" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="5"/>
+        <v>30</v>
+      </c>
+      <c r="E11" s="6"/>
     </row>
     <row r="12" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" t="s">
         <v>32</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>33</v>
       </c>
-      <c r="C12" t="s">
-        <v>34</v>
-      </c>
       <c r="D12" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="5"/>
+        <v>36</v>
+      </c>
+      <c r="E12" s="6"/>
     </row>
     <row r="13" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" t="s">
         <v>38</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>39</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="6" t="s">
         <v>41</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" t="s">
         <v>44</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>45</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" s="5"/>
+      <c r="E14" s="6"/>
     </row>
     <row r="15" spans="1:5" ht="57" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" t="s">
         <v>48</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>49</v>
       </c>
-      <c r="C15" t="s">
-        <v>50</v>
-      </c>
       <c r="D15" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E15" s="5"/>
+        <v>59</v>
+      </c>
+      <c r="E15" s="6"/>
     </row>
     <row r="16" spans="1:5" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" t="s">
         <v>54</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>56</v>
+    </row>
+    <row r="17" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A17" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/Metadata.xlsx
+++ b/Metadata.xlsx
@@ -8,24 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mnxan\OneDrive\Documents\GitHub\Huang_lechuan_todphilly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62E11E5B-3487-4E7F-863C-B43ED7C1B8F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E18391A-D26A-49DD-8B4B-79B756827F01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Metadata" sheetId="1" r:id="rId1"/>
+    <sheet name="APH Matrix" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="84">
   <si>
     <t>Variable</t>
   </si>
@@ -62,10 +71,6 @@
   </si>
   <si>
     <t>1. when consolidated, only the line that has the majority of services will be kept</t>
-  </si>
-  <si>
-    <t>Station Consolidated:
-Trenton Transit Center, North Philadelphia, Broadway and Walter in Downtown Camden (RIVERLINE + PATCO), Lindenwold, Pennsauken, Fern Rock, 69th St, 8th St, Center City (15, City Hall, Suburban), Norristown, Jefferson 11th</t>
   </si>
   <si>
     <t>sum_ac</t>
@@ -140,9 +145,6 @@
     <t>Score for the district where the station is located</t>
   </si>
   <si>
-    <t>1. Forecasted jobs in 2035 divided by the forecated population in 2035</t>
-  </si>
-  <si>
     <t>em_surp_sc</t>
   </si>
   <si>
@@ -150,16 +152,6 @@
   </si>
   <si>
     <t>Scores for districts where there are huge gaps between population and jobs available</t>
-  </si>
-  <si>
-    <t>Score for the Amount of jobs more than the population in the district where the station is located</t>
-  </si>
-  <si>
-    <t>Job Surplus Score</t>
-  </si>
-  <si>
-    <t>1. Absolute Value of job_surplus
-2. Quantile into 10</t>
   </si>
   <si>
     <t>pvt_qn</t>
@@ -204,12 +196,6 @@
   </si>
   <si>
     <t>Hand Clean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given </t>
-  </si>
-  <si>
-    <t>DVRPC GIS Portal</t>
   </si>
   <si>
     <t>Locality Score</t>
@@ -228,9 +214,6 @@
 3. 1-7 for stations located in "Townships" (Usually suburban area in a county) based its negatively quantiled size (the smaller township is, the higher scores are)</t>
   </si>
   <si>
-    <t>surp_sc</t>
-  </si>
-  <si>
     <t>loc_sc</t>
   </si>
   <si>
@@ -256,6 +239,96 @@
   </si>
   <si>
     <t>USGS Earthexplorer</t>
+  </si>
+  <si>
+    <t>duti_sc</t>
+  </si>
+  <si>
+    <t>Under-utilized land score</t>
+  </si>
+  <si>
+    <t>Score for how much of the size of under-utilized land around the station</t>
+  </si>
+  <si>
+    <t>attr_sc</t>
+  </si>
+  <si>
+    <t>Land Attractiveness score</t>
+  </si>
+  <si>
+    <t>Score for how attractive area around the station is.</t>
+  </si>
+  <si>
+    <t>1. Sum of the area for Commercial, Institutional, Recreational land within 800 meter-radius around the station
+2. Cutting range into 10</t>
+  </si>
+  <si>
+    <t>unattr_sc</t>
+  </si>
+  <si>
+    <t>Land Unattractivenss score</t>
+  </si>
+  <si>
+    <t>Score for how unattractive area around the station is.</t>
+  </si>
+  <si>
+    <t>1. Sum of the area for Industrial, Military, Utility land within 800 meter-radius around the station
+2. Cutting negative range into 10 (the higher the score, the less unattractive it is)</t>
+  </si>
+  <si>
+    <t>DVRPC GIS Portal
+Land Use 2015
+https://dvrpc-https://dvrpc-dvrpcgis.opendata.arcgis.com/datasets/dvrpcgis::land-use-2015/explore</t>
+  </si>
+  <si>
+    <t>DVRPC GIS Portal
+Greater Philadelphia Passenger Rail Station
+https://dvrpc-dvrpcgis.opendata.arcgis.com/datasets/dvrpcgis::greater-philadelphia-passenger-rail-stations/explore</t>
+  </si>
+  <si>
+    <t>1. Stations in Delaware State removed
+2. Station Consolidated:
+Trenton Transit Center, North Philadelphia, Broadway and Walter in Downtown Camden (RIVERLINE + PATCO), Lindenwold, Pennsauken, Fern Rock, 69th St, 8th St, Center City (15, City Hall, Suburban), Norristown, Jefferson 11th</t>
+  </si>
+  <si>
+    <t>Data Source</t>
+  </si>
+  <si>
+    <t>sum</t>
+  </si>
+  <si>
+    <t>anattr_sc</t>
+  </si>
+  <si>
+    <t>1. Absolute Value of job_surplus (Forecasted jobs in 2035 divided by the forecated population in 2035)
+2. Quantile into 10</t>
+  </si>
+  <si>
+    <t>Pairwise Comparison Matrix</t>
+  </si>
+  <si>
+    <t>Criteria Weights</t>
+  </si>
+  <si>
+    <t>Weighted Sum Value</t>
+  </si>
+  <si>
+    <t>1. Sum of the area for agriculture, underdeveloped (General and Transitional), parking (Undetermined and transportation) land within 800 meter-radius around the station
+2. Cutting range into 10</t>
+  </si>
+  <si>
+    <t>sc_aph</t>
+  </si>
+  <si>
+    <t>Final Score using Analytical Hierarchy Process</t>
+  </si>
+  <si>
+    <t>Final Score for how area around the station is suitable for TOD</t>
+  </si>
+  <si>
+    <t>1. Score is calculated based on the Multi-Criterion Decision Analysis (MCDA)
+2. Weighting is based on Analytical Hierarchy Process (APH)
+3. See tab "APH Matrix" for more detail</t>
   </si>
 </sst>
 </file>
@@ -279,12 +352,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -299,7 +390,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -315,6 +406,22 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -595,10 +702,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -623,6 +730,9 @@
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="E1" s="2" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="2" spans="1:5" ht="24.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
@@ -635,18 +745,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" ht="71.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>52</v>
+      <c r="D3" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
@@ -659,167 +769,168 @@
       <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="6"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="10"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E5" s="6"/>
+        <v>22</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="10"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="57" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
         <v>20</v>
       </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
       <c r="C7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="270.75" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
         <v>13</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D8" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
         <v>16</v>
       </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
       <c r="C9" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
         <v>26</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E10" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A11" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="5" t="s">
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" s="10"/>
+    </row>
+    <row r="12" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="10"/>
+    </row>
+    <row r="14" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+      <c r="A14" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A11" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="6"/>
-    </row>
-    <row r="12" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A12" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="6"/>
-    </row>
-    <row r="13" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A13" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A14" s="2" t="s">
+      <c r="B14" t="s">
         <v>43</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>44</v>
       </c>
-      <c r="C14" t="s">
-        <v>45</v>
-      </c>
       <c r="D14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="10"/>
+    </row>
+    <row r="15" spans="1:5" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="A15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="6"/>
-    </row>
-    <row r="15" spans="1:5" ht="57" x14ac:dyDescent="0.45">
-      <c r="A15" s="2" t="s">
+      <c r="C15" t="s">
         <v>47</v>
       </c>
-      <c r="B15" t="s">
+      <c r="D15" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C15" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E15" s="6"/>
-    </row>
-    <row r="16" spans="1:5" ht="85.5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="16" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B16" t="s">
         <v>53</v>
@@ -827,37 +938,1510 @@
       <c r="C16" t="s">
         <v>54</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E16" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="E16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" t="s">
         <v>60</v>
       </c>
-      <c r="B17" t="s">
+      <c r="D17" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+      <c r="A18" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C17" t="s">
+      <c r="B18" t="s">
         <v>62</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="C18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E18" s="10"/>
+    </row>
+    <row r="19" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+      <c r="A19" s="2" t="s">
         <v>65</v>
       </c>
+      <c r="B19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19" s="10"/>
+    </row>
+    <row r="20" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A20" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>83</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="E13:E15"/>
+  <mergeCells count="5">
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E12:E14"/>
     <mergeCell ref="E3:E5"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="D3:D5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8019F163-394D-4655-8D95-D957C39F411D}">
+  <dimension ref="A1:O45"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="K45" sqref="K45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="14" max="14" width="15.3984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A1" s="13"/>
+      <c r="B1" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="M1" s="16"/>
+      <c r="N1" s="17"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A2" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="12">
+        <v>1</v>
+      </c>
+      <c r="C2" s="11">
+        <v>3</v>
+      </c>
+      <c r="D2" s="11">
+        <v>1</v>
+      </c>
+      <c r="E2" s="11">
+        <v>1</v>
+      </c>
+      <c r="F2" s="11">
+        <v>1</v>
+      </c>
+      <c r="G2" s="11">
+        <v>1</v>
+      </c>
+      <c r="H2" s="11">
+        <v>1</v>
+      </c>
+      <c r="I2" s="11">
+        <v>1</v>
+      </c>
+      <c r="J2" s="11">
+        <v>5</v>
+      </c>
+      <c r="K2" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="L2" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="N2" s="18"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A3" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="11">
+        <f>MINVERSE(C$2)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C3" s="12">
+        <v>1</v>
+      </c>
+      <c r="D3" s="11">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E3" s="11">
+        <v>5</v>
+      </c>
+      <c r="F3" s="11">
+        <v>3</v>
+      </c>
+      <c r="G3" s="11">
+        <v>5</v>
+      </c>
+      <c r="H3" s="11">
+        <v>1</v>
+      </c>
+      <c r="I3" s="11">
+        <v>1</v>
+      </c>
+      <c r="J3" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="K3" s="11">
+        <v>5</v>
+      </c>
+      <c r="L3" s="11">
+        <v>5</v>
+      </c>
+      <c r="N3" s="18"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A4" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="11">
+        <f>MINVERSE(D$2)</f>
+        <v>1</v>
+      </c>
+      <c r="C4" s="11">
+        <f>MINVERSE(D$3)</f>
+        <v>3</v>
+      </c>
+      <c r="D4" s="12">
+        <v>1</v>
+      </c>
+      <c r="E4" s="11">
+        <v>5</v>
+      </c>
+      <c r="F4" s="11">
+        <v>3</v>
+      </c>
+      <c r="G4" s="11">
+        <v>5</v>
+      </c>
+      <c r="H4" s="11">
+        <v>1</v>
+      </c>
+      <c r="I4" s="11">
+        <v>1</v>
+      </c>
+      <c r="J4" s="11">
+        <v>3</v>
+      </c>
+      <c r="K4" s="11">
+        <v>5</v>
+      </c>
+      <c r="L4" s="11">
+        <v>5</v>
+      </c>
+      <c r="N4" s="18"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A5" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="11">
+        <f>MINVERSE(E$2)</f>
+        <v>1</v>
+      </c>
+      <c r="C5" s="11">
+        <f>MINVERSE(E$3)</f>
+        <v>0.2</v>
+      </c>
+      <c r="D5" s="11">
+        <f>MINVERSE(E$4)</f>
+        <v>0.2</v>
+      </c>
+      <c r="E5" s="12">
+        <v>1</v>
+      </c>
+      <c r="F5" s="11">
+        <v>5</v>
+      </c>
+      <c r="G5" s="11">
+        <v>5</v>
+      </c>
+      <c r="H5" s="11">
+        <v>1</v>
+      </c>
+      <c r="I5" s="11">
+        <v>1</v>
+      </c>
+      <c r="J5" s="11">
+        <v>1</v>
+      </c>
+      <c r="K5" s="11">
+        <v>1</v>
+      </c>
+      <c r="L5" s="11">
+        <v>1</v>
+      </c>
+      <c r="N5" s="18"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A6" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="11">
+        <f>MINVERSE(F$2)</f>
+        <v>1</v>
+      </c>
+      <c r="C6" s="11">
+        <f>MINVERSE(F3)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D6" s="11">
+        <f>MINVERSE(F$4)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E6" s="11">
+        <f>MINVERSE(F$5)</f>
+        <v>0.2</v>
+      </c>
+      <c r="F6" s="12">
+        <v>1</v>
+      </c>
+      <c r="G6" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="H6" s="11">
+        <v>1</v>
+      </c>
+      <c r="I6" s="11">
+        <v>1</v>
+      </c>
+      <c r="J6" s="11">
+        <v>1</v>
+      </c>
+      <c r="K6" s="11">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="L6" s="11">
+        <v>1</v>
+      </c>
+      <c r="N6" s="18"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A7" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="11">
+        <f>MINVERSE(G$2)</f>
+        <v>1</v>
+      </c>
+      <c r="C7" s="11">
+        <f>MINVERSE(G$3)</f>
+        <v>0.2</v>
+      </c>
+      <c r="D7" s="11">
+        <f>MINVERSE(G$4)</f>
+        <v>0.2</v>
+      </c>
+      <c r="E7" s="11">
+        <f>MINVERSE(G$5)</f>
+        <v>0.2</v>
+      </c>
+      <c r="F7" s="11">
+        <f>MINVERSE(G$6)</f>
+        <v>5</v>
+      </c>
+      <c r="G7" s="12">
+        <v>1</v>
+      </c>
+      <c r="H7" s="11">
+        <v>1</v>
+      </c>
+      <c r="I7" s="11">
+        <v>1</v>
+      </c>
+      <c r="J7" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="K7" s="11">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="L7" s="11">
+        <v>1</v>
+      </c>
+      <c r="N7" s="18"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A8" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="11">
+        <f>MINVERSE(H$2)</f>
+        <v>1</v>
+      </c>
+      <c r="C8" s="11">
+        <f>MINVERSE(H$3)</f>
+        <v>1</v>
+      </c>
+      <c r="D8" s="11">
+        <f>MINVERSE(H$4)</f>
+        <v>1</v>
+      </c>
+      <c r="E8" s="11">
+        <f>MINVERSE(H$5)</f>
+        <v>1</v>
+      </c>
+      <c r="F8" s="11">
+        <f>MINVERSE(H$6)</f>
+        <v>1</v>
+      </c>
+      <c r="G8" s="11">
+        <f>MINVERSE(H$7)</f>
+        <v>1</v>
+      </c>
+      <c r="H8" s="12">
+        <v>1</v>
+      </c>
+      <c r="I8" s="11">
+        <v>1</v>
+      </c>
+      <c r="J8" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="K8" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="L8" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="N8" s="18"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A9" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="11">
+        <f>MINVERSE(I$2)</f>
+        <v>1</v>
+      </c>
+      <c r="C9" s="11">
+        <f>MINVERSE(I$3)</f>
+        <v>1</v>
+      </c>
+      <c r="D9" s="11">
+        <f>MINVERSE(I$4)</f>
+        <v>1</v>
+      </c>
+      <c r="E9" s="11">
+        <f>MINVERSE(I$5)</f>
+        <v>1</v>
+      </c>
+      <c r="F9" s="11">
+        <f>MINVERSE(I$6)</f>
+        <v>1</v>
+      </c>
+      <c r="G9" s="11">
+        <f>MINVERSE(I$7)</f>
+        <v>1</v>
+      </c>
+      <c r="H9" s="11">
+        <f>MINVERSE(I$8)</f>
+        <v>1</v>
+      </c>
+      <c r="I9" s="12">
+        <v>1</v>
+      </c>
+      <c r="J9" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="K9" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="L9" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="N9" s="18"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A10" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="11">
+        <f>MINVERSE(J$2)</f>
+        <v>0.2</v>
+      </c>
+      <c r="C10" s="11">
+        <f>MINVERSE(J$3)</f>
+        <v>5</v>
+      </c>
+      <c r="D10" s="11">
+        <f>MINVERSE(J$4)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E10" s="11">
+        <f>MINVERSE(J$5)</f>
+        <v>1</v>
+      </c>
+      <c r="F10" s="11">
+        <f>MINVERSE(J$6)</f>
+        <v>1</v>
+      </c>
+      <c r="G10" s="11">
+        <f>MINVERSE(J$7)</f>
+        <v>5</v>
+      </c>
+      <c r="H10" s="11">
+        <f>MINVERSE(J$8)</f>
+        <v>5</v>
+      </c>
+      <c r="I10" s="11">
+        <f>MINVERSE(J$9)</f>
+        <v>5</v>
+      </c>
+      <c r="J10" s="12">
+        <v>1</v>
+      </c>
+      <c r="K10" s="11">
+        <v>1</v>
+      </c>
+      <c r="L10" s="11">
+        <v>1</v>
+      </c>
+      <c r="N10" s="18"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A11" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="11">
+        <f>MINVERSE(K$2)</f>
+        <v>5</v>
+      </c>
+      <c r="C11" s="11">
+        <f>MINVERSE(K$3)</f>
+        <v>0.2</v>
+      </c>
+      <c r="D11" s="11">
+        <f>MINVERSE(K$4)</f>
+        <v>0.2</v>
+      </c>
+      <c r="E11" s="11">
+        <f>MINVERSE(K$5)</f>
+        <v>1</v>
+      </c>
+      <c r="F11" s="11">
+        <f>MINVERSE(K$6)</f>
+        <v>3</v>
+      </c>
+      <c r="G11" s="11">
+        <f>MINVERSE(K$7)</f>
+        <v>3</v>
+      </c>
+      <c r="H11" s="11">
+        <f>MINVERSE(K$8)</f>
+        <v>5</v>
+      </c>
+      <c r="I11" s="11">
+        <f>MINVERSE(K$9)</f>
+        <v>5</v>
+      </c>
+      <c r="J11" s="11">
+        <f>MINVERSE(L$10)</f>
+        <v>1</v>
+      </c>
+      <c r="K11" s="12">
+        <v>1</v>
+      </c>
+      <c r="L11" s="11">
+        <v>1</v>
+      </c>
+      <c r="N11" s="18"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A12" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" s="11">
+        <f>MINVERSE(L$2)</f>
+        <v>5</v>
+      </c>
+      <c r="C12" s="11">
+        <f>MINVERSE(L$3)</f>
+        <v>0.2</v>
+      </c>
+      <c r="D12" s="11">
+        <f>MINVERSE(L$4)</f>
+        <v>0.2</v>
+      </c>
+      <c r="E12" s="11">
+        <f>MINVERSE(L$5)</f>
+        <v>1</v>
+      </c>
+      <c r="F12" s="11">
+        <f>MINVERSE(L$6)</f>
+        <v>1</v>
+      </c>
+      <c r="G12" s="11">
+        <f>MINVERSE(L$7)</f>
+        <v>1</v>
+      </c>
+      <c r="H12" s="11">
+        <f>MINVERSE(L$8)</f>
+        <v>5</v>
+      </c>
+      <c r="I12" s="11">
+        <f>MINVERSE(L$9)</f>
+        <v>5</v>
+      </c>
+      <c r="J12" s="11">
+        <f>MINVERSE(K$10)</f>
+        <v>1</v>
+      </c>
+      <c r="K12" s="11">
+        <f>MINVERSE(L$11)</f>
+        <v>1</v>
+      </c>
+      <c r="L12" s="12">
+        <v>1</v>
+      </c>
+      <c r="N12" s="18"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A13" s="13"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A14" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" s="14">
+        <f>SUM(B2:B12)</f>
+        <v>17.533333333333331</v>
+      </c>
+      <c r="C14" s="14">
+        <f t="shared" ref="C14:L14" si="0">SUM(C2:C12)</f>
+        <v>15.133333333333333</v>
+      </c>
+      <c r="D14" s="14">
+        <f t="shared" si="0"/>
+        <v>5.8</v>
+      </c>
+      <c r="E14" s="14">
+        <f t="shared" si="0"/>
+        <v>17.399999999999999</v>
+      </c>
+      <c r="F14" s="14">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="G14" s="14">
+        <f t="shared" si="0"/>
+        <v>28.2</v>
+      </c>
+      <c r="H14" s="14">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="I14" s="14">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="J14" s="14">
+        <f t="shared" si="0"/>
+        <v>13.799999999999997</v>
+      </c>
+      <c r="K14" s="14">
+        <f t="shared" si="0"/>
+        <v>15.266666666666666</v>
+      </c>
+      <c r="L14" s="14">
+        <f t="shared" si="0"/>
+        <v>16.599999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A15" s="2"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A16" s="2"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A17" s="2"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A18" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A19" s="13"/>
+      <c r="B19" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="J19" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="K19" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="L19" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="O19" s="13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A20" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="12">
+        <f>B2/B$14</f>
+        <v>5.70342205323194E-2</v>
+      </c>
+      <c r="C20" s="12">
+        <f t="shared" ref="C20:L20" si="1">C2/C$14</f>
+        <v>0.19823788546255508</v>
+      </c>
+      <c r="D20" s="12">
+        <f t="shared" si="1"/>
+        <v>0.17241379310344829</v>
+      </c>
+      <c r="E20" s="12">
+        <f t="shared" si="1"/>
+        <v>5.7471264367816098E-2</v>
+      </c>
+      <c r="F20" s="12">
+        <f t="shared" si="1"/>
+        <v>0.04</v>
+      </c>
+      <c r="G20" s="12">
+        <f t="shared" si="1"/>
+        <v>3.5460992907801421E-2</v>
+      </c>
+      <c r="H20" s="12">
+        <f t="shared" si="1"/>
+        <v>4.3478260869565216E-2</v>
+      </c>
+      <c r="I20" s="12">
+        <f t="shared" si="1"/>
+        <v>4.3478260869565216E-2</v>
+      </c>
+      <c r="J20" s="12">
+        <f t="shared" si="1"/>
+        <v>0.3623188405797102</v>
+      </c>
+      <c r="K20" s="12">
+        <f t="shared" si="1"/>
+        <v>1.3100436681222708E-2</v>
+      </c>
+      <c r="L20" s="12">
+        <f t="shared" si="1"/>
+        <v>1.204819277108434E-2</v>
+      </c>
+      <c r="N20" s="11">
+        <f>AVERAGE(B20:L20)</f>
+        <v>9.4094740740462521E-2</v>
+      </c>
+      <c r="O20" s="11">
+        <f>SUM(B20:L20)</f>
+        <v>1.0350421481450878</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A21" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="12">
+        <f t="shared" ref="B21:L30" si="2">B3/B$14</f>
+        <v>1.9011406844106463E-2</v>
+      </c>
+      <c r="C21" s="12">
+        <f t="shared" si="2"/>
+        <v>6.6079295154185022E-2</v>
+      </c>
+      <c r="D21" s="12">
+        <f t="shared" si="2"/>
+        <v>5.7471264367816091E-2</v>
+      </c>
+      <c r="E21" s="12">
+        <f t="shared" si="2"/>
+        <v>0.2873563218390805</v>
+      </c>
+      <c r="F21" s="12">
+        <f t="shared" si="2"/>
+        <v>0.12</v>
+      </c>
+      <c r="G21" s="12">
+        <f t="shared" si="2"/>
+        <v>0.1773049645390071</v>
+      </c>
+      <c r="H21" s="12">
+        <f t="shared" si="2"/>
+        <v>4.3478260869565216E-2</v>
+      </c>
+      <c r="I21" s="12">
+        <f t="shared" si="2"/>
+        <v>4.3478260869565216E-2</v>
+      </c>
+      <c r="J21" s="12">
+        <f t="shared" si="2"/>
+        <v>1.4492753623188409E-2</v>
+      </c>
+      <c r="K21" s="12">
+        <f t="shared" si="2"/>
+        <v>0.32751091703056773</v>
+      </c>
+      <c r="L21" s="12">
+        <f t="shared" si="2"/>
+        <v>0.30120481927710846</v>
+      </c>
+      <c r="N21" s="11">
+        <f t="shared" ref="N21:N30" si="3">AVERAGE(B21:L21)</f>
+        <v>0.13248984221947183</v>
+      </c>
+      <c r="O21" s="11">
+        <f t="shared" ref="O21:O30" si="4">SUM(B21:L21)</f>
+        <v>1.45738826441419</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A22" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="12">
+        <f t="shared" si="2"/>
+        <v>5.70342205323194E-2</v>
+      </c>
+      <c r="C22" s="12">
+        <f t="shared" si="2"/>
+        <v>0.19823788546255508</v>
+      </c>
+      <c r="D22" s="12">
+        <f t="shared" si="2"/>
+        <v>0.17241379310344829</v>
+      </c>
+      <c r="E22" s="12">
+        <f t="shared" si="2"/>
+        <v>0.2873563218390805</v>
+      </c>
+      <c r="F22" s="12">
+        <f t="shared" si="2"/>
+        <v>0.12</v>
+      </c>
+      <c r="G22" s="12">
+        <f t="shared" si="2"/>
+        <v>0.1773049645390071</v>
+      </c>
+      <c r="H22" s="12">
+        <f t="shared" si="2"/>
+        <v>4.3478260869565216E-2</v>
+      </c>
+      <c r="I22" s="12">
+        <f t="shared" si="2"/>
+        <v>4.3478260869565216E-2</v>
+      </c>
+      <c r="J22" s="12">
+        <f t="shared" si="2"/>
+        <v>0.21739130434782614</v>
+      </c>
+      <c r="K22" s="12">
+        <f t="shared" si="2"/>
+        <v>0.32751091703056773</v>
+      </c>
+      <c r="L22" s="12">
+        <f t="shared" si="2"/>
+        <v>0.30120481927710846</v>
+      </c>
+      <c r="N22" s="11">
+        <f t="shared" si="3"/>
+        <v>0.17685552253373119</v>
+      </c>
+      <c r="O22" s="11">
+        <f t="shared" si="4"/>
+        <v>1.945410747871043</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A23" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="12">
+        <f t="shared" si="2"/>
+        <v>5.70342205323194E-2</v>
+      </c>
+      <c r="C23" s="12">
+        <f t="shared" si="2"/>
+        <v>1.3215859030837005E-2</v>
+      </c>
+      <c r="D23" s="12">
+        <f t="shared" si="2"/>
+        <v>3.4482758620689655E-2</v>
+      </c>
+      <c r="E23" s="12">
+        <f t="shared" si="2"/>
+        <v>5.7471264367816098E-2</v>
+      </c>
+      <c r="F23" s="12">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="G23" s="12">
+        <f t="shared" si="2"/>
+        <v>0.1773049645390071</v>
+      </c>
+      <c r="H23" s="12">
+        <f t="shared" si="2"/>
+        <v>4.3478260869565216E-2</v>
+      </c>
+      <c r="I23" s="12">
+        <f t="shared" si="2"/>
+        <v>4.3478260869565216E-2</v>
+      </c>
+      <c r="J23" s="12">
+        <f t="shared" si="2"/>
+        <v>7.2463768115942045E-2</v>
+      </c>
+      <c r="K23" s="12">
+        <f t="shared" si="2"/>
+        <v>6.5502183406113537E-2</v>
+      </c>
+      <c r="L23" s="12">
+        <f t="shared" si="2"/>
+        <v>6.0240963855421693E-2</v>
+      </c>
+      <c r="N23" s="11">
+        <f t="shared" si="3"/>
+        <v>7.4970227655206986E-2</v>
+      </c>
+      <c r="O23" s="11">
+        <f t="shared" si="4"/>
+        <v>0.82467250420727689</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A24" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="12">
+        <f t="shared" si="2"/>
+        <v>5.70342205323194E-2</v>
+      </c>
+      <c r="C24" s="12">
+        <f t="shared" si="2"/>
+        <v>2.2026431718061675E-2</v>
+      </c>
+      <c r="D24" s="12">
+        <f t="shared" si="2"/>
+        <v>5.7471264367816091E-2</v>
+      </c>
+      <c r="E24" s="12">
+        <f t="shared" si="2"/>
+        <v>1.149425287356322E-2</v>
+      </c>
+      <c r="F24" s="12">
+        <f t="shared" si="2"/>
+        <v>0.04</v>
+      </c>
+      <c r="G24" s="12">
+        <f t="shared" si="2"/>
+        <v>7.0921985815602844E-3</v>
+      </c>
+      <c r="H24" s="12">
+        <f t="shared" si="2"/>
+        <v>4.3478260869565216E-2</v>
+      </c>
+      <c r="I24" s="12">
+        <f t="shared" si="2"/>
+        <v>4.3478260869565216E-2</v>
+      </c>
+      <c r="J24" s="12">
+        <f t="shared" si="2"/>
+        <v>7.2463768115942045E-2</v>
+      </c>
+      <c r="K24" s="12">
+        <f t="shared" si="2"/>
+        <v>2.1834061135371178E-2</v>
+      </c>
+      <c r="L24" s="12">
+        <f t="shared" si="2"/>
+        <v>6.0240963855421693E-2</v>
+      </c>
+      <c r="N24" s="11">
+        <f t="shared" si="3"/>
+        <v>3.9692152992653273E-2</v>
+      </c>
+      <c r="O24" s="11">
+        <f t="shared" si="4"/>
+        <v>0.43661368291918601</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A25" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="12">
+        <f t="shared" si="2"/>
+        <v>5.70342205323194E-2</v>
+      </c>
+      <c r="C25" s="12">
+        <f t="shared" si="2"/>
+        <v>1.3215859030837005E-2</v>
+      </c>
+      <c r="D25" s="12">
+        <f t="shared" si="2"/>
+        <v>3.4482758620689655E-2</v>
+      </c>
+      <c r="E25" s="12">
+        <f t="shared" si="2"/>
+        <v>1.149425287356322E-2</v>
+      </c>
+      <c r="F25" s="12">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="G25" s="12">
+        <f t="shared" si="2"/>
+        <v>3.5460992907801421E-2</v>
+      </c>
+      <c r="H25" s="12">
+        <f t="shared" si="2"/>
+        <v>4.3478260869565216E-2</v>
+      </c>
+      <c r="I25" s="12">
+        <f t="shared" si="2"/>
+        <v>4.3478260869565216E-2</v>
+      </c>
+      <c r="J25" s="12">
+        <f t="shared" si="2"/>
+        <v>1.4492753623188409E-2</v>
+      </c>
+      <c r="K25" s="12">
+        <f t="shared" si="2"/>
+        <v>2.1834061135371178E-2</v>
+      </c>
+      <c r="L25" s="12">
+        <f t="shared" si="2"/>
+        <v>6.0240963855421693E-2</v>
+      </c>
+      <c r="N25" s="11">
+        <f t="shared" si="3"/>
+        <v>4.8655671301665676E-2</v>
+      </c>
+      <c r="O25" s="11">
+        <f t="shared" si="4"/>
+        <v>0.53521238431832241</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A26" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="12">
+        <f t="shared" si="2"/>
+        <v>5.70342205323194E-2</v>
+      </c>
+      <c r="C26" s="12">
+        <f t="shared" si="2"/>
+        <v>6.6079295154185022E-2</v>
+      </c>
+      <c r="D26" s="12">
+        <f t="shared" si="2"/>
+        <v>0.17241379310344829</v>
+      </c>
+      <c r="E26" s="12">
+        <f t="shared" si="2"/>
+        <v>5.7471264367816098E-2</v>
+      </c>
+      <c r="F26" s="12">
+        <f t="shared" si="2"/>
+        <v>0.04</v>
+      </c>
+      <c r="G26" s="12">
+        <f t="shared" si="2"/>
+        <v>3.5460992907801421E-2</v>
+      </c>
+      <c r="H26" s="12">
+        <f t="shared" si="2"/>
+        <v>4.3478260869565216E-2</v>
+      </c>
+      <c r="I26" s="12">
+        <f t="shared" si="2"/>
+        <v>4.3478260869565216E-2</v>
+      </c>
+      <c r="J26" s="12">
+        <f t="shared" si="2"/>
+        <v>1.4492753623188409E-2</v>
+      </c>
+      <c r="K26" s="12">
+        <f t="shared" si="2"/>
+        <v>1.3100436681222708E-2</v>
+      </c>
+      <c r="L26" s="12">
+        <f t="shared" si="2"/>
+        <v>1.204819277108434E-2</v>
+      </c>
+      <c r="N26" s="11">
+        <f t="shared" si="3"/>
+        <v>5.0459770080017827E-2</v>
+      </c>
+      <c r="O26" s="11">
+        <f t="shared" si="4"/>
+        <v>0.55505747088019608</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A27" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="12">
+        <f t="shared" si="2"/>
+        <v>5.70342205323194E-2</v>
+      </c>
+      <c r="C27" s="12">
+        <f t="shared" si="2"/>
+        <v>6.6079295154185022E-2</v>
+      </c>
+      <c r="D27" s="12">
+        <f t="shared" si="2"/>
+        <v>0.17241379310344829</v>
+      </c>
+      <c r="E27" s="12">
+        <f t="shared" si="2"/>
+        <v>5.7471264367816098E-2</v>
+      </c>
+      <c r="F27" s="12">
+        <f t="shared" si="2"/>
+        <v>0.04</v>
+      </c>
+      <c r="G27" s="12">
+        <f t="shared" si="2"/>
+        <v>3.5460992907801421E-2</v>
+      </c>
+      <c r="H27" s="12">
+        <f t="shared" si="2"/>
+        <v>4.3478260869565216E-2</v>
+      </c>
+      <c r="I27" s="12">
+        <f t="shared" si="2"/>
+        <v>4.3478260869565216E-2</v>
+      </c>
+      <c r="J27" s="12">
+        <f t="shared" si="2"/>
+        <v>1.4492753623188409E-2</v>
+      </c>
+      <c r="K27" s="12">
+        <f t="shared" si="2"/>
+        <v>1.3100436681222708E-2</v>
+      </c>
+      <c r="L27" s="12">
+        <f t="shared" si="2"/>
+        <v>1.204819277108434E-2</v>
+      </c>
+      <c r="N27" s="11">
+        <f t="shared" si="3"/>
+        <v>5.0459770080017827E-2</v>
+      </c>
+      <c r="O27" s="11">
+        <f t="shared" si="4"/>
+        <v>0.55505747088019608</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A28" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" s="12">
+        <f t="shared" si="2"/>
+        <v>1.140684410646388E-2</v>
+      </c>
+      <c r="C28" s="12">
+        <f t="shared" si="2"/>
+        <v>0.33039647577092512</v>
+      </c>
+      <c r="D28" s="12">
+        <f t="shared" si="2"/>
+        <v>5.7471264367816091E-2</v>
+      </c>
+      <c r="E28" s="12">
+        <f t="shared" si="2"/>
+        <v>5.7471264367816098E-2</v>
+      </c>
+      <c r="F28" s="12">
+        <f t="shared" si="2"/>
+        <v>0.04</v>
+      </c>
+      <c r="G28" s="12">
+        <f t="shared" si="2"/>
+        <v>0.1773049645390071</v>
+      </c>
+      <c r="H28" s="12">
+        <f t="shared" si="2"/>
+        <v>0.21739130434782608</v>
+      </c>
+      <c r="I28" s="12">
+        <f t="shared" si="2"/>
+        <v>0.21739130434782608</v>
+      </c>
+      <c r="J28" s="12">
+        <f t="shared" si="2"/>
+        <v>7.2463768115942045E-2</v>
+      </c>
+      <c r="K28" s="12">
+        <f t="shared" si="2"/>
+        <v>6.5502183406113537E-2</v>
+      </c>
+      <c r="L28" s="12">
+        <f t="shared" si="2"/>
+        <v>6.0240963855421693E-2</v>
+      </c>
+      <c r="N28" s="11">
+        <f t="shared" si="3"/>
+        <v>0.11882184883865071</v>
+      </c>
+      <c r="O28" s="11">
+        <f t="shared" si="4"/>
+        <v>1.3070403372251578</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A29" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" s="12">
+        <f t="shared" si="2"/>
+        <v>0.28517110266159701</v>
+      </c>
+      <c r="C29" s="12">
+        <f t="shared" si="2"/>
+        <v>1.3215859030837005E-2</v>
+      </c>
+      <c r="D29" s="12">
+        <f t="shared" si="2"/>
+        <v>3.4482758620689655E-2</v>
+      </c>
+      <c r="E29" s="12">
+        <f t="shared" si="2"/>
+        <v>5.7471264367816098E-2</v>
+      </c>
+      <c r="F29" s="12">
+        <f t="shared" si="2"/>
+        <v>0.12</v>
+      </c>
+      <c r="G29" s="12">
+        <f t="shared" si="2"/>
+        <v>0.10638297872340426</v>
+      </c>
+      <c r="H29" s="12">
+        <f t="shared" si="2"/>
+        <v>0.21739130434782608</v>
+      </c>
+      <c r="I29" s="12">
+        <f t="shared" si="2"/>
+        <v>0.21739130434782608</v>
+      </c>
+      <c r="J29" s="12">
+        <f t="shared" si="2"/>
+        <v>7.2463768115942045E-2</v>
+      </c>
+      <c r="K29" s="12">
+        <f t="shared" si="2"/>
+        <v>6.5502183406113537E-2</v>
+      </c>
+      <c r="L29" s="12">
+        <f t="shared" si="2"/>
+        <v>6.0240963855421693E-2</v>
+      </c>
+      <c r="N29" s="11">
+        <f t="shared" si="3"/>
+        <v>0.11361031704340668</v>
+      </c>
+      <c r="O29" s="11">
+        <f t="shared" si="4"/>
+        <v>1.2497134874774736</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A30" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" s="12">
+        <f t="shared" si="2"/>
+        <v>0.28517110266159701</v>
+      </c>
+      <c r="C30" s="12">
+        <f t="shared" si="2"/>
+        <v>1.3215859030837005E-2</v>
+      </c>
+      <c r="D30" s="12">
+        <f t="shared" si="2"/>
+        <v>3.4482758620689655E-2</v>
+      </c>
+      <c r="E30" s="12">
+        <f t="shared" si="2"/>
+        <v>5.7471264367816098E-2</v>
+      </c>
+      <c r="F30" s="12">
+        <f t="shared" si="2"/>
+        <v>0.04</v>
+      </c>
+      <c r="G30" s="12">
+        <f t="shared" si="2"/>
+        <v>3.5460992907801421E-2</v>
+      </c>
+      <c r="H30" s="12">
+        <f t="shared" si="2"/>
+        <v>0.21739130434782608</v>
+      </c>
+      <c r="I30" s="12">
+        <f t="shared" si="2"/>
+        <v>0.21739130434782608</v>
+      </c>
+      <c r="J30" s="12">
+        <f t="shared" si="2"/>
+        <v>7.2463768115942045E-2</v>
+      </c>
+      <c r="K30" s="12">
+        <f t="shared" si="2"/>
+        <v>6.5502183406113537E-2</v>
+      </c>
+      <c r="L30" s="12">
+        <f t="shared" si="2"/>
+        <v>6.0240963855421693E-2</v>
+      </c>
+      <c r="N30" s="11">
+        <f t="shared" si="3"/>
+        <v>9.9890136514715511E-2</v>
+      </c>
+      <c r="O30" s="11">
+        <f t="shared" si="4"/>
+        <v>1.0987915016618706</v>
+      </c>
+    </row>
+    <row r="34" spans="9:11" x14ac:dyDescent="0.45">
+      <c r="I34">
+        <v>10</v>
+      </c>
+      <c r="J34" s="11">
+        <f>AVERAGE(B20:L20)</f>
+        <v>9.4094740740462521E-2</v>
+      </c>
+      <c r="K34">
+        <f>I34*J34</f>
+        <v>0.94094740740462524</v>
+      </c>
+    </row>
+    <row r="35" spans="9:11" x14ac:dyDescent="0.45">
+      <c r="I35" s="8">
+        <v>10</v>
+      </c>
+      <c r="J35" s="11">
+        <f t="shared" ref="J35:J45" si="5">AVERAGE(B21:L21)</f>
+        <v>0.13248984221947183</v>
+      </c>
+      <c r="K35" s="8">
+        <f t="shared" ref="K35:K44" si="6">I35*J35</f>
+        <v>1.3248984221947182</v>
+      </c>
+    </row>
+    <row r="36" spans="9:11" x14ac:dyDescent="0.45">
+      <c r="I36" s="8">
+        <v>10</v>
+      </c>
+      <c r="J36" s="11">
+        <f t="shared" si="5"/>
+        <v>0.17685552253373119</v>
+      </c>
+      <c r="K36" s="8">
+        <f t="shared" si="6"/>
+        <v>1.7685552253373118</v>
+      </c>
+    </row>
+    <row r="37" spans="9:11" x14ac:dyDescent="0.45">
+      <c r="I37" s="8">
+        <v>10</v>
+      </c>
+      <c r="J37" s="11">
+        <f t="shared" si="5"/>
+        <v>7.4970227655206986E-2</v>
+      </c>
+      <c r="K37" s="8">
+        <f t="shared" si="6"/>
+        <v>0.74970227655206989</v>
+      </c>
+    </row>
+    <row r="38" spans="9:11" x14ac:dyDescent="0.45">
+      <c r="I38" s="8">
+        <v>10</v>
+      </c>
+      <c r="J38" s="11">
+        <f t="shared" si="5"/>
+        <v>3.9692152992653273E-2</v>
+      </c>
+      <c r="K38" s="8">
+        <f t="shared" si="6"/>
+        <v>0.39692152992653273</v>
+      </c>
+    </row>
+    <row r="39" spans="9:11" x14ac:dyDescent="0.45">
+      <c r="I39" s="8">
+        <v>10</v>
+      </c>
+      <c r="J39" s="11">
+        <f t="shared" si="5"/>
+        <v>4.8655671301665676E-2</v>
+      </c>
+      <c r="K39" s="8">
+        <f t="shared" si="6"/>
+        <v>0.48655671301665676</v>
+      </c>
+    </row>
+    <row r="40" spans="9:11" x14ac:dyDescent="0.45">
+      <c r="I40" s="8">
+        <v>10</v>
+      </c>
+      <c r="J40" s="11">
+        <f t="shared" si="5"/>
+        <v>5.0459770080017827E-2</v>
+      </c>
+      <c r="K40" s="8">
+        <f t="shared" si="6"/>
+        <v>0.50459770080017829</v>
+      </c>
+    </row>
+    <row r="41" spans="9:11" x14ac:dyDescent="0.45">
+      <c r="I41" s="8">
+        <v>10</v>
+      </c>
+      <c r="J41" s="11">
+        <f t="shared" si="5"/>
+        <v>5.0459770080017827E-2</v>
+      </c>
+      <c r="K41" s="8">
+        <f t="shared" si="6"/>
+        <v>0.50459770080017829</v>
+      </c>
+    </row>
+    <row r="42" spans="9:11" x14ac:dyDescent="0.45">
+      <c r="I42" s="8">
+        <v>10</v>
+      </c>
+      <c r="J42" s="11">
+        <f t="shared" si="5"/>
+        <v>0.11882184883865071</v>
+      </c>
+      <c r="K42" s="8">
+        <f t="shared" si="6"/>
+        <v>1.1882184883865072</v>
+      </c>
+    </row>
+    <row r="43" spans="9:11" x14ac:dyDescent="0.45">
+      <c r="I43" s="8">
+        <v>10</v>
+      </c>
+      <c r="J43" s="11">
+        <f t="shared" si="5"/>
+        <v>0.11361031704340668</v>
+      </c>
+      <c r="K43" s="8">
+        <f t="shared" si="6"/>
+        <v>1.1361031704340667</v>
+      </c>
+    </row>
+    <row r="44" spans="9:11" x14ac:dyDescent="0.45">
+      <c r="I44" s="8">
+        <v>10</v>
+      </c>
+      <c r="J44" s="11">
+        <f t="shared" si="5"/>
+        <v>9.9890136514715511E-2</v>
+      </c>
+      <c r="K44" s="8">
+        <f t="shared" si="6"/>
+        <v>0.99890136514715511</v>
+      </c>
+    </row>
+    <row r="45" spans="9:11" x14ac:dyDescent="0.45">
+      <c r="J45" s="11"/>
+      <c r="K45">
+        <f>SUM(K34:K44)</f>
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Metadata.xlsx
+++ b/Metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mnxan\OneDrive\Documents\GitHub\Huang_lechuan_todphilly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E18391A-D26A-49DD-8B4B-79B756827F01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76DF3DEF-A729-4E82-A7AA-3F9BF3636EE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -410,10 +410,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -422,6 +418,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -704,8 +704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -715,6 +715,7 @@
     <col min="3" max="3" width="52.46484375" customWidth="1"/>
     <col min="4" max="4" width="47.86328125" customWidth="1"/>
     <col min="5" max="5" width="26.53125" customWidth="1"/>
+    <col min="8" max="8" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
@@ -752,10 +753,10 @@
       <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="17" t="s">
         <v>70</v>
       </c>
     </row>
@@ -769,8 +770,8 @@
       <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="10"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="18"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
@@ -779,8 +780,8 @@
       <c r="B5" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="10"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="18"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
@@ -845,7 +846,7 @@
       <c r="D10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="17" t="s">
         <v>37</v>
       </c>
     </row>
@@ -862,7 +863,7 @@
       <c r="D11" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E11" s="10"/>
+      <c r="E11" s="18"/>
     </row>
     <row r="12" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
@@ -877,7 +878,7 @@
       <c r="D12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="18" t="s">
         <v>36</v>
       </c>
     </row>
@@ -894,7 +895,7 @@
       <c r="D13" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="10"/>
+      <c r="E13" s="18"/>
     </row>
     <row r="14" spans="1:5" ht="57" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
@@ -909,7 +910,7 @@
       <c r="D14" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="10"/>
+      <c r="E14" s="18"/>
     </row>
     <row r="15" spans="1:5" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
@@ -958,7 +959,7 @@
       <c r="D17" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="17" t="s">
         <v>69</v>
       </c>
     </row>
@@ -975,7 +976,7 @@
       <c r="D18" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="E18" s="10"/>
+      <c r="E18" s="18"/>
     </row>
     <row r="19" spans="1:5" ht="57" x14ac:dyDescent="0.45">
       <c r="A19" s="2" t="s">
@@ -990,7 +991,7 @@
       <c r="D19" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="E19" s="10"/>
+      <c r="E19" s="18"/>
     </row>
     <row r="20" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A20" s="2" t="s">
@@ -1023,8 +1024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8019F163-394D-4655-8D95-D957C39F411D}">
   <dimension ref="A1:O45"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="K45" sqref="K45"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1033,575 +1034,575 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A1" s="13"/>
-      <c r="B1" s="13" t="s">
+      <c r="A1" s="11"/>
+      <c r="B1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="L1" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="M1" s="16"/>
-      <c r="N1" s="17"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="15"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="12">
-        <v>1</v>
-      </c>
-      <c r="C2" s="11">
+      <c r="B2" s="10">
+        <v>1</v>
+      </c>
+      <c r="C2" s="9">
         <v>3</v>
       </c>
-      <c r="D2" s="11">
-        <v>1</v>
-      </c>
-      <c r="E2" s="11">
-        <v>1</v>
-      </c>
-      <c r="F2" s="11">
-        <v>1</v>
-      </c>
-      <c r="G2" s="11">
-        <v>1</v>
-      </c>
-      <c r="H2" s="11">
-        <v>1</v>
-      </c>
-      <c r="I2" s="11">
-        <v>1</v>
-      </c>
-      <c r="J2" s="11">
+      <c r="D2" s="9">
+        <v>1</v>
+      </c>
+      <c r="E2" s="9">
+        <v>1</v>
+      </c>
+      <c r="F2" s="9">
+        <v>1</v>
+      </c>
+      <c r="G2" s="9">
+        <v>1</v>
+      </c>
+      <c r="H2" s="9">
+        <v>1</v>
+      </c>
+      <c r="I2" s="9">
+        <v>1</v>
+      </c>
+      <c r="J2" s="9">
         <v>5</v>
       </c>
-      <c r="K2" s="11">
+      <c r="K2" s="9">
         <v>0.2</v>
       </c>
-      <c r="L2" s="11">
+      <c r="L2" s="9">
         <v>0.2</v>
       </c>
-      <c r="N2" s="18"/>
+      <c r="N2" s="16"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="9">
         <f>MINVERSE(C$2)</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="C3" s="12">
-        <v>1</v>
-      </c>
-      <c r="D3" s="11">
+      <c r="C3" s="10">
+        <v>1</v>
+      </c>
+      <c r="D3" s="9">
         <v>0.33333333333333331</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="9">
         <v>5</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="9">
         <v>3</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="9">
         <v>5</v>
       </c>
-      <c r="H3" s="11">
-        <v>1</v>
-      </c>
-      <c r="I3" s="11">
-        <v>1</v>
-      </c>
-      <c r="J3" s="11">
+      <c r="H3" s="9">
+        <v>1</v>
+      </c>
+      <c r="I3" s="9">
+        <v>1</v>
+      </c>
+      <c r="J3" s="9">
         <v>0.2</v>
       </c>
-      <c r="K3" s="11">
+      <c r="K3" s="9">
         <v>5</v>
       </c>
-      <c r="L3" s="11">
+      <c r="L3" s="9">
         <v>5</v>
       </c>
-      <c r="N3" s="18"/>
+      <c r="N3" s="16"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="9">
         <f>MINVERSE(D$2)</f>
         <v>1</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="9">
         <f>MINVERSE(D$3)</f>
         <v>3</v>
       </c>
-      <c r="D4" s="12">
-        <v>1</v>
-      </c>
-      <c r="E4" s="11">
+      <c r="D4" s="10">
+        <v>1</v>
+      </c>
+      <c r="E4" s="9">
         <v>5</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="9">
         <v>3</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="9">
         <v>5</v>
       </c>
-      <c r="H4" s="11">
-        <v>1</v>
-      </c>
-      <c r="I4" s="11">
-        <v>1</v>
-      </c>
-      <c r="J4" s="11">
+      <c r="H4" s="9">
+        <v>1</v>
+      </c>
+      <c r="I4" s="9">
+        <v>1</v>
+      </c>
+      <c r="J4" s="9">
         <v>3</v>
       </c>
-      <c r="K4" s="11">
+      <c r="K4" s="9">
         <v>5</v>
       </c>
-      <c r="L4" s="11">
+      <c r="L4" s="9">
         <v>5</v>
       </c>
-      <c r="N4" s="18"/>
+      <c r="N4" s="16"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="9">
         <f>MINVERSE(E$2)</f>
         <v>1</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="9">
         <f>MINVERSE(E$3)</f>
         <v>0.2</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="9">
         <f>MINVERSE(E$4)</f>
         <v>0.2</v>
       </c>
-      <c r="E5" s="12">
-        <v>1</v>
-      </c>
-      <c r="F5" s="11">
+      <c r="E5" s="10">
+        <v>1</v>
+      </c>
+      <c r="F5" s="9">
         <v>5</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="9">
         <v>5</v>
       </c>
-      <c r="H5" s="11">
-        <v>1</v>
-      </c>
-      <c r="I5" s="11">
-        <v>1</v>
-      </c>
-      <c r="J5" s="11">
-        <v>1</v>
-      </c>
-      <c r="K5" s="11">
-        <v>1</v>
-      </c>
-      <c r="L5" s="11">
-        <v>1</v>
-      </c>
-      <c r="N5" s="18"/>
+      <c r="H5" s="9">
+        <v>1</v>
+      </c>
+      <c r="I5" s="9">
+        <v>1</v>
+      </c>
+      <c r="J5" s="9">
+        <v>1</v>
+      </c>
+      <c r="K5" s="9">
+        <v>1</v>
+      </c>
+      <c r="L5" s="9">
+        <v>1</v>
+      </c>
+      <c r="N5" s="16"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="9">
         <f>MINVERSE(F$2)</f>
         <v>1</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="9">
         <f>MINVERSE(F3)</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="9">
         <f>MINVERSE(F$4)</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="9">
         <f>MINVERSE(F$5)</f>
         <v>0.2</v>
       </c>
-      <c r="F6" s="12">
-        <v>1</v>
-      </c>
-      <c r="G6" s="11">
+      <c r="F6" s="10">
+        <v>1</v>
+      </c>
+      <c r="G6" s="9">
         <v>0.2</v>
       </c>
-      <c r="H6" s="11">
-        <v>1</v>
-      </c>
-      <c r="I6" s="11">
-        <v>1</v>
-      </c>
-      <c r="J6" s="11">
-        <v>1</v>
-      </c>
-      <c r="K6" s="11">
+      <c r="H6" s="9">
+        <v>1</v>
+      </c>
+      <c r="I6" s="9">
+        <v>1</v>
+      </c>
+      <c r="J6" s="9">
+        <v>1</v>
+      </c>
+      <c r="K6" s="9">
         <v>0.33333333333333331</v>
       </c>
-      <c r="L6" s="11">
-        <v>1</v>
-      </c>
-      <c r="N6" s="18"/>
+      <c r="L6" s="9">
+        <v>1</v>
+      </c>
+      <c r="N6" s="16"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="9">
         <f>MINVERSE(G$2)</f>
         <v>1</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="9">
         <f>MINVERSE(G$3)</f>
         <v>0.2</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="9">
         <f>MINVERSE(G$4)</f>
         <v>0.2</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="9">
         <f>MINVERSE(G$5)</f>
         <v>0.2</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="9">
         <f>MINVERSE(G$6)</f>
         <v>5</v>
       </c>
-      <c r="G7" s="12">
-        <v>1</v>
-      </c>
-      <c r="H7" s="11">
-        <v>1</v>
-      </c>
-      <c r="I7" s="11">
-        <v>1</v>
-      </c>
-      <c r="J7" s="11">
+      <c r="G7" s="10">
+        <v>1</v>
+      </c>
+      <c r="H7" s="9">
+        <v>1</v>
+      </c>
+      <c r="I7" s="9">
+        <v>1</v>
+      </c>
+      <c r="J7" s="9">
         <v>0.2</v>
       </c>
-      <c r="K7" s="11">
+      <c r="K7" s="9">
         <v>0.33333333333333331</v>
       </c>
-      <c r="L7" s="11">
-        <v>1</v>
-      </c>
-      <c r="N7" s="18"/>
+      <c r="L7" s="9">
+        <v>1</v>
+      </c>
+      <c r="N7" s="16"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="9">
         <f>MINVERSE(H$2)</f>
         <v>1</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="9">
         <f>MINVERSE(H$3)</f>
         <v>1</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="9">
         <f>MINVERSE(H$4)</f>
         <v>1</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="9">
         <f>MINVERSE(H$5)</f>
         <v>1</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="9">
         <f>MINVERSE(H$6)</f>
         <v>1</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="9">
         <f>MINVERSE(H$7)</f>
         <v>1</v>
       </c>
-      <c r="H8" s="12">
-        <v>1</v>
-      </c>
-      <c r="I8" s="11">
-        <v>1</v>
-      </c>
-      <c r="J8" s="11">
+      <c r="H8" s="10">
+        <v>1</v>
+      </c>
+      <c r="I8" s="9">
+        <v>1</v>
+      </c>
+      <c r="J8" s="9">
         <v>0.2</v>
       </c>
-      <c r="K8" s="11">
+      <c r="K8" s="9">
         <v>0.2</v>
       </c>
-      <c r="L8" s="11">
+      <c r="L8" s="9">
         <v>0.2</v>
       </c>
-      <c r="N8" s="18"/>
+      <c r="N8" s="16"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="9">
         <f>MINVERSE(I$2)</f>
         <v>1</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="9">
         <f>MINVERSE(I$3)</f>
         <v>1</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="9">
         <f>MINVERSE(I$4)</f>
         <v>1</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="9">
         <f>MINVERSE(I$5)</f>
         <v>1</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="9">
         <f>MINVERSE(I$6)</f>
         <v>1</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="9">
         <f>MINVERSE(I$7)</f>
         <v>1</v>
       </c>
-      <c r="H9" s="11">
+      <c r="H9" s="9">
         <f>MINVERSE(I$8)</f>
         <v>1</v>
       </c>
-      <c r="I9" s="12">
-        <v>1</v>
-      </c>
-      <c r="J9" s="11">
+      <c r="I9" s="10">
+        <v>1</v>
+      </c>
+      <c r="J9" s="9">
         <v>0.2</v>
       </c>
-      <c r="K9" s="11">
+      <c r="K9" s="9">
         <v>0.2</v>
       </c>
-      <c r="L9" s="11">
+      <c r="L9" s="9">
         <v>0.2</v>
       </c>
-      <c r="N9" s="18"/>
+      <c r="N9" s="16"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="9">
         <f>MINVERSE(J$2)</f>
         <v>0.2</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="9">
         <f>MINVERSE(J$3)</f>
         <v>5</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="9">
         <f>MINVERSE(J$4)</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="9">
         <f>MINVERSE(J$5)</f>
         <v>1</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="9">
         <f>MINVERSE(J$6)</f>
         <v>1</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="9">
         <f>MINVERSE(J$7)</f>
         <v>5</v>
       </c>
-      <c r="H10" s="11">
+      <c r="H10" s="9">
         <f>MINVERSE(J$8)</f>
         <v>5</v>
       </c>
-      <c r="I10" s="11">
+      <c r="I10" s="9">
         <f>MINVERSE(J$9)</f>
         <v>5</v>
       </c>
-      <c r="J10" s="12">
-        <v>1</v>
-      </c>
-      <c r="K10" s="11">
-        <v>1</v>
-      </c>
-      <c r="L10" s="11">
-        <v>1</v>
-      </c>
-      <c r="N10" s="18"/>
+      <c r="J10" s="10">
+        <v>1</v>
+      </c>
+      <c r="K10" s="9">
+        <v>1</v>
+      </c>
+      <c r="L10" s="9">
+        <v>1</v>
+      </c>
+      <c r="N10" s="16"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="9">
         <f>MINVERSE(K$2)</f>
         <v>5</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="9">
         <f>MINVERSE(K$3)</f>
         <v>0.2</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="9">
         <f>MINVERSE(K$4)</f>
         <v>0.2</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="9">
         <f>MINVERSE(K$5)</f>
         <v>1</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="9">
         <f>MINVERSE(K$6)</f>
         <v>3</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="9">
         <f>MINVERSE(K$7)</f>
         <v>3</v>
       </c>
-      <c r="H11" s="11">
+      <c r="H11" s="9">
         <f>MINVERSE(K$8)</f>
         <v>5</v>
       </c>
-      <c r="I11" s="11">
+      <c r="I11" s="9">
         <f>MINVERSE(K$9)</f>
         <v>5</v>
       </c>
-      <c r="J11" s="11">
+      <c r="J11" s="9">
         <f>MINVERSE(L$10)</f>
         <v>1</v>
       </c>
-      <c r="K11" s="12">
-        <v>1</v>
-      </c>
-      <c r="L11" s="11">
-        <v>1</v>
-      </c>
-      <c r="N11" s="18"/>
+      <c r="K11" s="10">
+        <v>1</v>
+      </c>
+      <c r="L11" s="9">
+        <v>1</v>
+      </c>
+      <c r="N11" s="16"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="9">
         <f>MINVERSE(L$2)</f>
         <v>5</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="9">
         <f>MINVERSE(L$3)</f>
         <v>0.2</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="9">
         <f>MINVERSE(L$4)</f>
         <v>0.2</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="9">
         <f>MINVERSE(L$5)</f>
         <v>1</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="9">
         <f>MINVERSE(L$6)</f>
         <v>1</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G12" s="9">
         <f>MINVERSE(L$7)</f>
         <v>1</v>
       </c>
-      <c r="H12" s="11">
+      <c r="H12" s="9">
         <f>MINVERSE(L$8)</f>
         <v>5</v>
       </c>
-      <c r="I12" s="11">
+      <c r="I12" s="9">
         <f>MINVERSE(L$9)</f>
         <v>5</v>
       </c>
-      <c r="J12" s="11">
+      <c r="J12" s="9">
         <f>MINVERSE(K$10)</f>
         <v>1</v>
       </c>
-      <c r="K12" s="11">
+      <c r="K12" s="9">
         <f>MINVERSE(L$11)</f>
         <v>1</v>
       </c>
-      <c r="L12" s="12">
-        <v>1</v>
-      </c>
-      <c r="N12" s="18"/>
+      <c r="L12" s="10">
+        <v>1</v>
+      </c>
+      <c r="N12" s="16"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A13" s="13"/>
+      <c r="A13" s="11"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="B14" s="14">
+      <c r="B14" s="12">
         <f>SUM(B2:B12)</f>
         <v>17.533333333333331</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C14" s="12">
         <f t="shared" ref="C14:L14" si="0">SUM(C2:C12)</f>
         <v>15.133333333333333</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D14" s="12">
         <f t="shared" si="0"/>
         <v>5.8</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E14" s="12">
         <f t="shared" si="0"/>
         <v>17.399999999999999</v>
       </c>
-      <c r="F14" s="14">
+      <c r="F14" s="12">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="G14" s="14">
+      <c r="G14" s="12">
         <f t="shared" si="0"/>
         <v>28.2</v>
       </c>
-      <c r="H14" s="14">
+      <c r="H14" s="12">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="I14" s="14">
+      <c r="I14" s="12">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="J14" s="14">
+      <c r="J14" s="12">
         <f t="shared" si="0"/>
         <v>13.799999999999997</v>
       </c>
-      <c r="K14" s="14">
+      <c r="K14" s="12">
         <f t="shared" si="0"/>
         <v>15.266666666666666</v>
       </c>
-      <c r="L14" s="14">
+      <c r="L14" s="12">
         <f t="shared" si="0"/>
         <v>16.599999999999998</v>
       </c>
@@ -1621,824 +1622,730 @@
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13" t="s">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E19" s="13" t="s">
+      <c r="E19" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="F19" s="13" t="s">
+      <c r="F19" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="G19" s="13" t="s">
+      <c r="G19" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="H19" s="13" t="s">
+      <c r="H19" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="I19" s="13" t="s">
+      <c r="I19" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="J19" s="13" t="s">
+      <c r="J19" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="K19" s="13" t="s">
+      <c r="K19" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="L19" s="13" t="s">
+      <c r="L19" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13" t="s">
+      <c r="M19" s="11"/>
+      <c r="N19" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="O19" s="13" t="s">
+      <c r="O19" s="11" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="12">
+      <c r="B20" s="10">
         <f>B2/B$14</f>
         <v>5.70342205323194E-2</v>
       </c>
-      <c r="C20" s="12">
-        <f t="shared" ref="C20:L20" si="1">C2/C$14</f>
+      <c r="C20" s="10">
+        <f>C2/C$14</f>
         <v>0.19823788546255508</v>
       </c>
-      <c r="D20" s="12">
-        <f t="shared" si="1"/>
+      <c r="D20" s="10">
+        <f t="shared" ref="C20:L20" si="1">D2/D$14</f>
         <v>0.17241379310344829</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E20" s="10">
         <f t="shared" si="1"/>
         <v>5.7471264367816098E-2</v>
       </c>
-      <c r="F20" s="12">
+      <c r="F20" s="10">
         <f t="shared" si="1"/>
         <v>0.04</v>
       </c>
-      <c r="G20" s="12">
+      <c r="G20" s="10">
         <f t="shared" si="1"/>
         <v>3.5460992907801421E-2</v>
       </c>
-      <c r="H20" s="12">
+      <c r="H20" s="10">
         <f t="shared" si="1"/>
         <v>4.3478260869565216E-2</v>
       </c>
-      <c r="I20" s="12">
+      <c r="I20" s="10">
         <f t="shared" si="1"/>
         <v>4.3478260869565216E-2</v>
       </c>
-      <c r="J20" s="12">
+      <c r="J20" s="10">
         <f t="shared" si="1"/>
         <v>0.3623188405797102</v>
       </c>
-      <c r="K20" s="12">
+      <c r="K20" s="10">
         <f t="shared" si="1"/>
         <v>1.3100436681222708E-2</v>
       </c>
-      <c r="L20" s="12">
+      <c r="L20" s="10">
         <f t="shared" si="1"/>
         <v>1.204819277108434E-2</v>
       </c>
-      <c r="N20" s="11">
+      <c r="N20" s="9">
         <f>AVERAGE(B20:L20)</f>
         <v>9.4094740740462521E-2</v>
       </c>
-      <c r="O20" s="11">
+      <c r="O20" s="9">
         <f>SUM(B20:L20)</f>
         <v>1.0350421481450878</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="12">
+      <c r="B21" s="10">
         <f t="shared" ref="B21:L30" si="2">B3/B$14</f>
         <v>1.9011406844106463E-2</v>
       </c>
-      <c r="C21" s="12">
+      <c r="C21" s="10">
         <f t="shared" si="2"/>
         <v>6.6079295154185022E-2</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D21" s="10">
         <f t="shared" si="2"/>
         <v>5.7471264367816091E-2</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E21" s="10">
         <f t="shared" si="2"/>
         <v>0.2873563218390805</v>
       </c>
-      <c r="F21" s="12">
+      <c r="F21" s="10">
         <f t="shared" si="2"/>
         <v>0.12</v>
       </c>
-      <c r="G21" s="12">
+      <c r="G21" s="10">
         <f t="shared" si="2"/>
         <v>0.1773049645390071</v>
       </c>
-      <c r="H21" s="12">
+      <c r="H21" s="10">
         <f t="shared" si="2"/>
         <v>4.3478260869565216E-2</v>
       </c>
-      <c r="I21" s="12">
+      <c r="I21" s="10">
         <f t="shared" si="2"/>
         <v>4.3478260869565216E-2</v>
       </c>
-      <c r="J21" s="12">
+      <c r="J21" s="10">
         <f t="shared" si="2"/>
         <v>1.4492753623188409E-2</v>
       </c>
-      <c r="K21" s="12">
+      <c r="K21" s="10">
         <f t="shared" si="2"/>
         <v>0.32751091703056773</v>
       </c>
-      <c r="L21" s="12">
+      <c r="L21" s="10">
         <f t="shared" si="2"/>
         <v>0.30120481927710846</v>
       </c>
-      <c r="N21" s="11">
+      <c r="N21" s="9">
         <f t="shared" ref="N21:N30" si="3">AVERAGE(B21:L21)</f>
         <v>0.13248984221947183</v>
       </c>
-      <c r="O21" s="11">
+      <c r="O21" s="9">
         <f t="shared" ref="O21:O30" si="4">SUM(B21:L21)</f>
         <v>1.45738826441419</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="12">
+      <c r="B22" s="10">
         <f t="shared" si="2"/>
         <v>5.70342205323194E-2</v>
       </c>
-      <c r="C22" s="12">
+      <c r="C22" s="10">
         <f t="shared" si="2"/>
         <v>0.19823788546255508</v>
       </c>
-      <c r="D22" s="12">
+      <c r="D22" s="10">
         <f t="shared" si="2"/>
         <v>0.17241379310344829</v>
       </c>
-      <c r="E22" s="12">
+      <c r="E22" s="10">
         <f t="shared" si="2"/>
         <v>0.2873563218390805</v>
       </c>
-      <c r="F22" s="12">
+      <c r="F22" s="10">
         <f t="shared" si="2"/>
         <v>0.12</v>
       </c>
-      <c r="G22" s="12">
+      <c r="G22" s="10">
         <f t="shared" si="2"/>
         <v>0.1773049645390071</v>
       </c>
-      <c r="H22" s="12">
+      <c r="H22" s="10">
         <f t="shared" si="2"/>
         <v>4.3478260869565216E-2</v>
       </c>
-      <c r="I22" s="12">
+      <c r="I22" s="10">
         <f t="shared" si="2"/>
         <v>4.3478260869565216E-2</v>
       </c>
-      <c r="J22" s="12">
+      <c r="J22" s="10">
         <f t="shared" si="2"/>
         <v>0.21739130434782614</v>
       </c>
-      <c r="K22" s="12">
+      <c r="K22" s="10">
         <f t="shared" si="2"/>
         <v>0.32751091703056773</v>
       </c>
-      <c r="L22" s="12">
+      <c r="L22" s="10">
         <f t="shared" si="2"/>
         <v>0.30120481927710846</v>
       </c>
-      <c r="N22" s="11">
+      <c r="N22" s="9">
         <f t="shared" si="3"/>
         <v>0.17685552253373119</v>
       </c>
-      <c r="O22" s="11">
+      <c r="O22" s="9">
         <f t="shared" si="4"/>
         <v>1.945410747871043</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="12">
+      <c r="B23" s="10">
         <f t="shared" si="2"/>
         <v>5.70342205323194E-2</v>
       </c>
-      <c r="C23" s="12">
+      <c r="C23" s="10">
         <f t="shared" si="2"/>
         <v>1.3215859030837005E-2</v>
       </c>
-      <c r="D23" s="12">
+      <c r="D23" s="10">
         <f t="shared" si="2"/>
         <v>3.4482758620689655E-2</v>
       </c>
-      <c r="E23" s="12">
+      <c r="E23" s="10">
         <f t="shared" si="2"/>
         <v>5.7471264367816098E-2</v>
       </c>
-      <c r="F23" s="12">
+      <c r="F23" s="10">
         <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
-      <c r="G23" s="12">
+      <c r="G23" s="10">
         <f t="shared" si="2"/>
         <v>0.1773049645390071</v>
       </c>
-      <c r="H23" s="12">
+      <c r="H23" s="10">
         <f t="shared" si="2"/>
         <v>4.3478260869565216E-2</v>
       </c>
-      <c r="I23" s="12">
+      <c r="I23" s="10">
         <f t="shared" si="2"/>
         <v>4.3478260869565216E-2</v>
       </c>
-      <c r="J23" s="12">
+      <c r="J23" s="10">
         <f t="shared" si="2"/>
         <v>7.2463768115942045E-2</v>
       </c>
-      <c r="K23" s="12">
+      <c r="K23" s="10">
         <f t="shared" si="2"/>
         <v>6.5502183406113537E-2</v>
       </c>
-      <c r="L23" s="12">
+      <c r="L23" s="10">
         <f t="shared" si="2"/>
         <v>6.0240963855421693E-2</v>
       </c>
-      <c r="N23" s="11">
+      <c r="N23" s="9">
         <f t="shared" si="3"/>
         <v>7.4970227655206986E-2</v>
       </c>
-      <c r="O23" s="11">
+      <c r="O23" s="9">
         <f t="shared" si="4"/>
         <v>0.82467250420727689</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="12">
+      <c r="B24" s="10">
         <f t="shared" si="2"/>
         <v>5.70342205323194E-2</v>
       </c>
-      <c r="C24" s="12">
+      <c r="C24" s="10">
         <f t="shared" si="2"/>
         <v>2.2026431718061675E-2</v>
       </c>
-      <c r="D24" s="12">
+      <c r="D24" s="10">
         <f t="shared" si="2"/>
         <v>5.7471264367816091E-2</v>
       </c>
-      <c r="E24" s="12">
+      <c r="E24" s="10">
         <f t="shared" si="2"/>
         <v>1.149425287356322E-2</v>
       </c>
-      <c r="F24" s="12">
+      <c r="F24" s="10">
         <f t="shared" si="2"/>
         <v>0.04</v>
       </c>
-      <c r="G24" s="12">
+      <c r="G24" s="10">
         <f t="shared" si="2"/>
         <v>7.0921985815602844E-3</v>
       </c>
-      <c r="H24" s="12">
+      <c r="H24" s="10">
         <f t="shared" si="2"/>
         <v>4.3478260869565216E-2</v>
       </c>
-      <c r="I24" s="12">
+      <c r="I24" s="10">
         <f t="shared" si="2"/>
         <v>4.3478260869565216E-2</v>
       </c>
-      <c r="J24" s="12">
+      <c r="J24" s="10">
         <f t="shared" si="2"/>
         <v>7.2463768115942045E-2</v>
       </c>
-      <c r="K24" s="12">
+      <c r="K24" s="10">
         <f t="shared" si="2"/>
         <v>2.1834061135371178E-2</v>
       </c>
-      <c r="L24" s="12">
+      <c r="L24" s="10">
         <f t="shared" si="2"/>
         <v>6.0240963855421693E-2</v>
       </c>
-      <c r="N24" s="11">
+      <c r="N24" s="9">
         <f t="shared" si="3"/>
         <v>3.9692152992653273E-2</v>
       </c>
-      <c r="O24" s="11">
+      <c r="O24" s="9">
         <f t="shared" si="4"/>
         <v>0.43661368291918601</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B25" s="12">
+      <c r="B25" s="10">
         <f t="shared" si="2"/>
         <v>5.70342205323194E-2</v>
       </c>
-      <c r="C25" s="12">
+      <c r="C25" s="10">
         <f t="shared" si="2"/>
         <v>1.3215859030837005E-2</v>
       </c>
-      <c r="D25" s="12">
+      <c r="D25" s="10">
         <f t="shared" si="2"/>
         <v>3.4482758620689655E-2</v>
       </c>
-      <c r="E25" s="12">
+      <c r="E25" s="10">
         <f t="shared" si="2"/>
         <v>1.149425287356322E-2</v>
       </c>
-      <c r="F25" s="12">
+      <c r="F25" s="10">
         <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
-      <c r="G25" s="12">
+      <c r="G25" s="10">
         <f t="shared" si="2"/>
         <v>3.5460992907801421E-2</v>
       </c>
-      <c r="H25" s="12">
+      <c r="H25" s="10">
         <f t="shared" si="2"/>
         <v>4.3478260869565216E-2</v>
       </c>
-      <c r="I25" s="12">
+      <c r="I25" s="10">
         <f t="shared" si="2"/>
         <v>4.3478260869565216E-2</v>
       </c>
-      <c r="J25" s="12">
+      <c r="J25" s="10">
         <f t="shared" si="2"/>
         <v>1.4492753623188409E-2</v>
       </c>
-      <c r="K25" s="12">
+      <c r="K25" s="10">
         <f t="shared" si="2"/>
         <v>2.1834061135371178E-2</v>
       </c>
-      <c r="L25" s="12">
+      <c r="L25" s="10">
         <f t="shared" si="2"/>
         <v>6.0240963855421693E-2</v>
       </c>
-      <c r="N25" s="11">
+      <c r="N25" s="9">
         <f t="shared" si="3"/>
         <v>4.8655671301665676E-2</v>
       </c>
-      <c r="O25" s="11">
+      <c r="O25" s="9">
         <f t="shared" si="4"/>
         <v>0.53521238431832241</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="12">
+      <c r="B26" s="10">
         <f t="shared" si="2"/>
         <v>5.70342205323194E-2</v>
       </c>
-      <c r="C26" s="12">
+      <c r="C26" s="10">
         <f t="shared" si="2"/>
         <v>6.6079295154185022E-2</v>
       </c>
-      <c r="D26" s="12">
+      <c r="D26" s="10">
         <f t="shared" si="2"/>
         <v>0.17241379310344829</v>
       </c>
-      <c r="E26" s="12">
+      <c r="E26" s="10">
         <f t="shared" si="2"/>
         <v>5.7471264367816098E-2</v>
       </c>
-      <c r="F26" s="12">
+      <c r="F26" s="10">
         <f t="shared" si="2"/>
         <v>0.04</v>
       </c>
-      <c r="G26" s="12">
+      <c r="G26" s="10">
         <f t="shared" si="2"/>
         <v>3.5460992907801421E-2</v>
       </c>
-      <c r="H26" s="12">
+      <c r="H26" s="10">
         <f t="shared" si="2"/>
         <v>4.3478260869565216E-2</v>
       </c>
-      <c r="I26" s="12">
+      <c r="I26" s="10">
         <f t="shared" si="2"/>
         <v>4.3478260869565216E-2</v>
       </c>
-      <c r="J26" s="12">
+      <c r="J26" s="10">
         <f t="shared" si="2"/>
         <v>1.4492753623188409E-2</v>
       </c>
-      <c r="K26" s="12">
+      <c r="K26" s="10">
         <f t="shared" si="2"/>
         <v>1.3100436681222708E-2</v>
       </c>
-      <c r="L26" s="12">
+      <c r="L26" s="10">
         <f t="shared" si="2"/>
         <v>1.204819277108434E-2</v>
       </c>
-      <c r="N26" s="11">
+      <c r="N26" s="9">
         <f t="shared" si="3"/>
         <v>5.0459770080017827E-2</v>
       </c>
-      <c r="O26" s="11">
+      <c r="O26" s="9">
         <f t="shared" si="4"/>
         <v>0.55505747088019608</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="12">
+      <c r="B27" s="10">
         <f t="shared" si="2"/>
         <v>5.70342205323194E-2</v>
       </c>
-      <c r="C27" s="12">
+      <c r="C27" s="10">
         <f t="shared" si="2"/>
         <v>6.6079295154185022E-2</v>
       </c>
-      <c r="D27" s="12">
+      <c r="D27" s="10">
         <f t="shared" si="2"/>
         <v>0.17241379310344829</v>
       </c>
-      <c r="E27" s="12">
+      <c r="E27" s="10">
         <f t="shared" si="2"/>
         <v>5.7471264367816098E-2</v>
       </c>
-      <c r="F27" s="12">
+      <c r="F27" s="10">
         <f t="shared" si="2"/>
         <v>0.04</v>
       </c>
-      <c r="G27" s="12">
+      <c r="G27" s="10">
         <f t="shared" si="2"/>
         <v>3.5460992907801421E-2</v>
       </c>
-      <c r="H27" s="12">
+      <c r="H27" s="10">
         <f t="shared" si="2"/>
         <v>4.3478260869565216E-2</v>
       </c>
-      <c r="I27" s="12">
+      <c r="I27" s="10">
         <f t="shared" si="2"/>
         <v>4.3478260869565216E-2</v>
       </c>
-      <c r="J27" s="12">
+      <c r="J27" s="10">
         <f t="shared" si="2"/>
         <v>1.4492753623188409E-2</v>
       </c>
-      <c r="K27" s="12">
+      <c r="K27" s="10">
         <f t="shared" si="2"/>
         <v>1.3100436681222708E-2</v>
       </c>
-      <c r="L27" s="12">
+      <c r="L27" s="10">
         <f t="shared" si="2"/>
         <v>1.204819277108434E-2</v>
       </c>
-      <c r="N27" s="11">
+      <c r="N27" s="9">
         <f t="shared" si="3"/>
         <v>5.0459770080017827E-2</v>
       </c>
-      <c r="O27" s="11">
+      <c r="O27" s="9">
         <f t="shared" si="4"/>
         <v>0.55505747088019608</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="B28" s="12">
+      <c r="B28" s="10">
         <f t="shared" si="2"/>
         <v>1.140684410646388E-2</v>
       </c>
-      <c r="C28" s="12">
+      <c r="C28" s="10">
         <f t="shared" si="2"/>
         <v>0.33039647577092512</v>
       </c>
-      <c r="D28" s="12">
+      <c r="D28" s="10">
         <f t="shared" si="2"/>
         <v>5.7471264367816091E-2</v>
       </c>
-      <c r="E28" s="12">
+      <c r="E28" s="10">
         <f t="shared" si="2"/>
         <v>5.7471264367816098E-2</v>
       </c>
-      <c r="F28" s="12">
+      <c r="F28" s="10">
         <f t="shared" si="2"/>
         <v>0.04</v>
       </c>
-      <c r="G28" s="12">
+      <c r="G28" s="10">
         <f t="shared" si="2"/>
         <v>0.1773049645390071</v>
       </c>
-      <c r="H28" s="12">
+      <c r="H28" s="10">
         <f t="shared" si="2"/>
         <v>0.21739130434782608</v>
       </c>
-      <c r="I28" s="12">
+      <c r="I28" s="10">
         <f t="shared" si="2"/>
         <v>0.21739130434782608</v>
       </c>
-      <c r="J28" s="12">
+      <c r="J28" s="10">
         <f t="shared" si="2"/>
         <v>7.2463768115942045E-2</v>
       </c>
-      <c r="K28" s="12">
+      <c r="K28" s="10">
         <f t="shared" si="2"/>
         <v>6.5502183406113537E-2</v>
       </c>
-      <c r="L28" s="12">
+      <c r="L28" s="10">
         <f t="shared" si="2"/>
         <v>6.0240963855421693E-2</v>
       </c>
-      <c r="N28" s="11">
+      <c r="N28" s="9">
         <f t="shared" si="3"/>
         <v>0.11882184883865071</v>
       </c>
-      <c r="O28" s="11">
+      <c r="O28" s="9">
         <f t="shared" si="4"/>
         <v>1.3070403372251578</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="B29" s="12">
+      <c r="B29" s="10">
         <f t="shared" si="2"/>
         <v>0.28517110266159701</v>
       </c>
-      <c r="C29" s="12">
+      <c r="C29" s="10">
         <f t="shared" si="2"/>
         <v>1.3215859030837005E-2</v>
       </c>
-      <c r="D29" s="12">
+      <c r="D29" s="10">
         <f t="shared" si="2"/>
         <v>3.4482758620689655E-2</v>
       </c>
-      <c r="E29" s="12">
+      <c r="E29" s="10">
         <f t="shared" si="2"/>
         <v>5.7471264367816098E-2</v>
       </c>
-      <c r="F29" s="12">
+      <c r="F29" s="10">
         <f t="shared" si="2"/>
         <v>0.12</v>
       </c>
-      <c r="G29" s="12">
+      <c r="G29" s="10">
         <f t="shared" si="2"/>
         <v>0.10638297872340426</v>
       </c>
-      <c r="H29" s="12">
+      <c r="H29" s="10">
         <f t="shared" si="2"/>
         <v>0.21739130434782608</v>
       </c>
-      <c r="I29" s="12">
+      <c r="I29" s="10">
         <f t="shared" si="2"/>
         <v>0.21739130434782608</v>
       </c>
-      <c r="J29" s="12">
+      <c r="J29" s="10">
         <f t="shared" si="2"/>
         <v>7.2463768115942045E-2</v>
       </c>
-      <c r="K29" s="12">
+      <c r="K29" s="10">
         <f t="shared" si="2"/>
         <v>6.5502183406113537E-2</v>
       </c>
-      <c r="L29" s="12">
+      <c r="L29" s="10">
         <f t="shared" si="2"/>
         <v>6.0240963855421693E-2</v>
       </c>
-      <c r="N29" s="11">
+      <c r="N29" s="9">
         <f t="shared" si="3"/>
         <v>0.11361031704340668</v>
       </c>
-      <c r="O29" s="11">
+      <c r="O29" s="9">
         <f t="shared" si="4"/>
         <v>1.2497134874774736</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A30" s="13" t="s">
+      <c r="A30" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="B30" s="12">
+      <c r="B30" s="10">
         <f t="shared" si="2"/>
         <v>0.28517110266159701</v>
       </c>
-      <c r="C30" s="12">
+      <c r="C30" s="10">
         <f t="shared" si="2"/>
         <v>1.3215859030837005E-2</v>
       </c>
-      <c r="D30" s="12">
+      <c r="D30" s="10">
         <f t="shared" si="2"/>
         <v>3.4482758620689655E-2</v>
       </c>
-      <c r="E30" s="12">
+      <c r="E30" s="10">
         <f t="shared" si="2"/>
         <v>5.7471264367816098E-2</v>
       </c>
-      <c r="F30" s="12">
+      <c r="F30" s="10">
         <f t="shared" si="2"/>
         <v>0.04</v>
       </c>
-      <c r="G30" s="12">
+      <c r="G30" s="10">
         <f t="shared" si="2"/>
         <v>3.5460992907801421E-2</v>
       </c>
-      <c r="H30" s="12">
+      <c r="H30" s="10">
         <f t="shared" si="2"/>
         <v>0.21739130434782608</v>
       </c>
-      <c r="I30" s="12">
+      <c r="I30" s="10">
         <f t="shared" si="2"/>
         <v>0.21739130434782608</v>
       </c>
-      <c r="J30" s="12">
+      <c r="J30" s="10">
         <f t="shared" si="2"/>
         <v>7.2463768115942045E-2</v>
       </c>
-      <c r="K30" s="12">
+      <c r="K30" s="10">
         <f t="shared" si="2"/>
         <v>6.5502183406113537E-2</v>
       </c>
-      <c r="L30" s="12">
+      <c r="L30" s="10">
         <f t="shared" si="2"/>
         <v>6.0240963855421693E-2</v>
       </c>
-      <c r="N30" s="11">
+      <c r="N30" s="9">
         <f t="shared" si="3"/>
         <v>9.9890136514715511E-2</v>
       </c>
-      <c r="O30" s="11">
+      <c r="O30" s="9">
         <f t="shared" si="4"/>
         <v>1.0987915016618706</v>
       </c>
     </row>
     <row r="34" spans="9:11" x14ac:dyDescent="0.45">
-      <c r="I34">
-        <v>10</v>
-      </c>
-      <c r="J34" s="11">
-        <f>AVERAGE(B20:L20)</f>
-        <v>9.4094740740462521E-2</v>
-      </c>
-      <c r="K34">
-        <f>I34*J34</f>
-        <v>0.94094740740462524</v>
-      </c>
+      <c r="J34" s="9"/>
     </row>
     <row r="35" spans="9:11" x14ac:dyDescent="0.45">
-      <c r="I35" s="8">
-        <v>10</v>
-      </c>
-      <c r="J35" s="11">
-        <f t="shared" ref="J35:J45" si="5">AVERAGE(B21:L21)</f>
-        <v>0.13248984221947183</v>
-      </c>
-      <c r="K35" s="8">
-        <f t="shared" ref="K35:K44" si="6">I35*J35</f>
-        <v>1.3248984221947182</v>
-      </c>
+      <c r="I35" s="8"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="8"/>
     </row>
     <row r="36" spans="9:11" x14ac:dyDescent="0.45">
-      <c r="I36" s="8">
-        <v>10</v>
-      </c>
-      <c r="J36" s="11">
-        <f t="shared" si="5"/>
-        <v>0.17685552253373119</v>
-      </c>
-      <c r="K36" s="8">
-        <f t="shared" si="6"/>
-        <v>1.7685552253373118</v>
-      </c>
+      <c r="I36" s="8"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="8"/>
     </row>
     <row r="37" spans="9:11" x14ac:dyDescent="0.45">
-      <c r="I37" s="8">
-        <v>10</v>
-      </c>
-      <c r="J37" s="11">
-        <f t="shared" si="5"/>
-        <v>7.4970227655206986E-2</v>
-      </c>
-      <c r="K37" s="8">
-        <f t="shared" si="6"/>
-        <v>0.74970227655206989</v>
-      </c>
+      <c r="I37" s="8"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="8"/>
     </row>
     <row r="38" spans="9:11" x14ac:dyDescent="0.45">
-      <c r="I38" s="8">
-        <v>10</v>
-      </c>
-      <c r="J38" s="11">
-        <f t="shared" si="5"/>
-        <v>3.9692152992653273E-2</v>
-      </c>
-      <c r="K38" s="8">
-        <f t="shared" si="6"/>
-        <v>0.39692152992653273</v>
-      </c>
+      <c r="I38" s="8"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="8"/>
     </row>
     <row r="39" spans="9:11" x14ac:dyDescent="0.45">
-      <c r="I39" s="8">
-        <v>10</v>
-      </c>
-      <c r="J39" s="11">
-        <f t="shared" si="5"/>
-        <v>4.8655671301665676E-2</v>
-      </c>
-      <c r="K39" s="8">
-        <f t="shared" si="6"/>
-        <v>0.48655671301665676</v>
-      </c>
+      <c r="I39" s="8"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="8"/>
     </row>
     <row r="40" spans="9:11" x14ac:dyDescent="0.45">
-      <c r="I40" s="8">
-        <v>10</v>
-      </c>
-      <c r="J40" s="11">
-        <f t="shared" si="5"/>
-        <v>5.0459770080017827E-2</v>
-      </c>
-      <c r="K40" s="8">
-        <f t="shared" si="6"/>
-        <v>0.50459770080017829</v>
-      </c>
+      <c r="I40" s="8"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="8"/>
     </row>
     <row r="41" spans="9:11" x14ac:dyDescent="0.45">
-      <c r="I41" s="8">
-        <v>10</v>
-      </c>
-      <c r="J41" s="11">
-        <f t="shared" si="5"/>
-        <v>5.0459770080017827E-2</v>
-      </c>
-      <c r="K41" s="8">
-        <f t="shared" si="6"/>
-        <v>0.50459770080017829</v>
-      </c>
+      <c r="I41" s="8"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="8"/>
     </row>
     <row r="42" spans="9:11" x14ac:dyDescent="0.45">
-      <c r="I42" s="8">
-        <v>10</v>
-      </c>
-      <c r="J42" s="11">
-        <f t="shared" si="5"/>
-        <v>0.11882184883865071</v>
-      </c>
-      <c r="K42" s="8">
-        <f t="shared" si="6"/>
-        <v>1.1882184883865072</v>
-      </c>
+      <c r="I42" s="8"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="8"/>
     </row>
     <row r="43" spans="9:11" x14ac:dyDescent="0.45">
-      <c r="I43" s="8">
-        <v>10</v>
-      </c>
-      <c r="J43" s="11">
-        <f t="shared" si="5"/>
-        <v>0.11361031704340668</v>
-      </c>
-      <c r="K43" s="8">
-        <f t="shared" si="6"/>
-        <v>1.1361031704340667</v>
-      </c>
+      <c r="I43" s="8"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="8"/>
     </row>
     <row r="44" spans="9:11" x14ac:dyDescent="0.45">
-      <c r="I44" s="8">
-        <v>10</v>
-      </c>
-      <c r="J44" s="11">
-        <f t="shared" si="5"/>
-        <v>9.9890136514715511E-2</v>
-      </c>
-      <c r="K44" s="8">
-        <f t="shared" si="6"/>
-        <v>0.99890136514715511</v>
-      </c>
+      <c r="I44" s="8"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="8"/>
     </row>
     <row r="45" spans="9:11" x14ac:dyDescent="0.45">
-      <c r="J45" s="11"/>
-      <c r="K45">
-        <f>SUM(K34:K44)</f>
-        <v>10</v>
-      </c>
+      <c r="J45" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Metadata.xlsx
+++ b/Metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mnxan\OneDrive\Documents\GitHub\Huang_lechuan_todphilly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76DF3DEF-A729-4E82-A7AA-3F9BF3636EE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D90E6095-9DD6-4192-99FF-E32EB06E0A60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -704,7 +704,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
@@ -1024,8 +1024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8019F163-394D-4655-8D95-D957C39F411D}">
   <dimension ref="A1:O45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1125,16 +1125,16 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="E3" s="9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F3" s="9">
         <v>3</v>
       </c>
       <c r="G3" s="9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H3" s="9">
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="I3" s="9">
         <v>1</v>
@@ -1143,10 +1143,10 @@
         <v>0.2</v>
       </c>
       <c r="K3" s="9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L3" s="9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N3" s="16"/>
     </row>
@@ -1166,13 +1166,13 @@
         <v>1</v>
       </c>
       <c r="E4" s="9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F4" s="9">
         <v>3</v>
       </c>
       <c r="G4" s="9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H4" s="9">
         <v>1</v>
@@ -1181,13 +1181,13 @@
         <v>1</v>
       </c>
       <c r="J4" s="9">
+        <v>1</v>
+      </c>
+      <c r="K4" s="9">
         <v>3</v>
       </c>
-      <c r="K4" s="9">
-        <v>5</v>
-      </c>
       <c r="L4" s="9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N4" s="16"/>
     </row>
@@ -1201,11 +1201,11 @@
       </c>
       <c r="C5" s="9">
         <f>MINVERSE(E$3)</f>
-        <v>0.2</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D5" s="9">
         <f>MINVERSE(E$4)</f>
-        <v>0.2</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E5" s="10">
         <v>1</v>
@@ -1214,7 +1214,7 @@
         <v>5</v>
       </c>
       <c r="G5" s="9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H5" s="9">
         <v>1</v>
@@ -1286,15 +1286,15 @@
       </c>
       <c r="C7" s="9">
         <f>MINVERSE(G$3)</f>
-        <v>0.2</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D7" s="9">
         <f>MINVERSE(G$4)</f>
-        <v>0.2</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E7" s="9">
         <f>MINVERSE(G$5)</f>
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="F7" s="9">
         <f>MINVERSE(G$6)</f>
@@ -1304,16 +1304,16 @@
         <v>1</v>
       </c>
       <c r="H7" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I7" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J7" s="9">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="K7" s="9">
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="L7" s="9">
         <v>1</v>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="C8" s="9">
         <f>MINVERSE(H$3)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D8" s="9">
         <f>MINVERSE(H$4)</f>
@@ -1346,22 +1346,22 @@
       </c>
       <c r="G8" s="9">
         <f>MINVERSE(H$7)</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="H8" s="10">
         <v>1</v>
       </c>
       <c r="I8" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J8" s="9">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="K8" s="9">
         <v>0.2</v>
       </c>
       <c r="L8" s="9">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="N8" s="16"/>
     </row>
@@ -1391,11 +1391,11 @@
       </c>
       <c r="G9" s="9">
         <f>MINVERSE(I$7)</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="H9" s="9">
         <f>MINVERSE(I$8)</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="I9" s="10">
         <v>1</v>
@@ -1425,7 +1425,7 @@
       </c>
       <c r="D10" s="9">
         <f>MINVERSE(J$4)</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="E10" s="9">
         <f>MINVERSE(J$5)</f>
@@ -1437,11 +1437,11 @@
       </c>
       <c r="G10" s="9">
         <f>MINVERSE(J$7)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H10" s="9">
         <f>MINVERSE(J$8)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I10" s="9">
         <f>MINVERSE(J$9)</f>
@@ -1468,11 +1468,11 @@
       </c>
       <c r="C11" s="9">
         <f>MINVERSE(K$3)</f>
-        <v>0.2</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D11" s="9">
         <f>MINVERSE(K$4)</f>
-        <v>0.2</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E11" s="9">
         <f>MINVERSE(K$5)</f>
@@ -1484,7 +1484,7 @@
       </c>
       <c r="G11" s="9">
         <f>MINVERSE(K$7)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H11" s="9">
         <f>MINVERSE(K$8)</f>
@@ -1502,7 +1502,7 @@
         <v>1</v>
       </c>
       <c r="L11" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N11" s="16"/>
     </row>
@@ -1516,11 +1516,11 @@
       </c>
       <c r="C12" s="9">
         <f>MINVERSE(L$3)</f>
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="D12" s="9">
         <f>MINVERSE(L$4)</f>
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="E12" s="9">
         <f>MINVERSE(L$5)</f>
@@ -1536,7 +1536,7 @@
       </c>
       <c r="H12" s="9">
         <f>MINVERSE(L$8)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I12" s="9">
         <f>MINVERSE(L$9)</f>
@@ -1548,7 +1548,7 @@
       </c>
       <c r="K12" s="9">
         <f>MINVERSE(L$11)</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="L12" s="10">
         <v>1</v>
@@ -1568,15 +1568,15 @@
       </c>
       <c r="C14" s="12">
         <f t="shared" ref="C14:L14" si="0">SUM(C2:C12)</f>
-        <v>15.133333333333333</v>
+        <v>18.333333333333332</v>
       </c>
       <c r="D14" s="12">
         <f t="shared" si="0"/>
-        <v>5.8</v>
+        <v>7.666666666666667</v>
       </c>
       <c r="E14" s="12">
         <f t="shared" si="0"/>
-        <v>17.399999999999999</v>
+        <v>14.2</v>
       </c>
       <c r="F14" s="12">
         <f t="shared" si="0"/>
@@ -1584,27 +1584,27 @@
       </c>
       <c r="G14" s="12">
         <f t="shared" si="0"/>
-        <v>28.2</v>
+        <v>12.866666666666667</v>
       </c>
       <c r="H14" s="12">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>15.666666666666666</v>
       </c>
       <c r="I14" s="12">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="J14" s="12">
         <f t="shared" si="0"/>
-        <v>13.799999999999997</v>
+        <v>13.399999999999999</v>
       </c>
       <c r="K14" s="12">
         <f t="shared" si="0"/>
-        <v>15.266666666666666</v>
+        <v>11.266666666666666</v>
       </c>
       <c r="L14" s="12">
         <f t="shared" si="0"/>
-        <v>16.599999999999998</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.45">
@@ -1674,15 +1674,15 @@
       </c>
       <c r="C20" s="10">
         <f>C2/C$14</f>
-        <v>0.19823788546255508</v>
+        <v>0.16363636363636364</v>
       </c>
       <c r="D20" s="10">
-        <f t="shared" ref="C20:L20" si="1">D2/D$14</f>
-        <v>0.17241379310344829</v>
+        <f t="shared" ref="D20:L20" si="1">D2/D$14</f>
+        <v>0.13043478260869565</v>
       </c>
       <c r="E20" s="10">
         <f t="shared" si="1"/>
-        <v>5.7471264367816098E-2</v>
+        <v>7.0422535211267609E-2</v>
       </c>
       <c r="F20" s="10">
         <f t="shared" si="1"/>
@@ -1690,35 +1690,35 @@
       </c>
       <c r="G20" s="10">
         <f t="shared" si="1"/>
-        <v>3.5460992907801421E-2</v>
+        <v>7.7720207253886009E-2</v>
       </c>
       <c r="H20" s="10">
         <f t="shared" si="1"/>
-        <v>4.3478260869565216E-2</v>
+        <v>6.3829787234042562E-2</v>
       </c>
       <c r="I20" s="10">
         <f t="shared" si="1"/>
-        <v>4.3478260869565216E-2</v>
+        <v>3.7037037037037035E-2</v>
       </c>
       <c r="J20" s="10">
         <f t="shared" si="1"/>
-        <v>0.3623188405797102</v>
+        <v>0.37313432835820898</v>
       </c>
       <c r="K20" s="10">
         <f t="shared" si="1"/>
-        <v>1.3100436681222708E-2</v>
+        <v>1.7751479289940832E-2</v>
       </c>
       <c r="L20" s="10">
         <f t="shared" si="1"/>
-        <v>1.204819277108434E-2</v>
+        <v>1.7543859649122806E-2</v>
       </c>
       <c r="N20" s="9">
         <f>AVERAGE(B20:L20)</f>
-        <v>9.4094740740462521E-2</v>
+        <v>9.5322236437353144E-2</v>
       </c>
       <c r="O20" s="9">
         <f>SUM(B20:L20)</f>
-        <v>1.0350421481450878</v>
+        <v>1.0485446008108845</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.45">
@@ -1731,15 +1731,15 @@
       </c>
       <c r="C21" s="10">
         <f t="shared" si="2"/>
-        <v>6.6079295154185022E-2</v>
+        <v>5.454545454545455E-2</v>
       </c>
       <c r="D21" s="10">
         <f t="shared" si="2"/>
-        <v>5.7471264367816091E-2</v>
+        <v>4.3478260869565216E-2</v>
       </c>
       <c r="E21" s="10">
         <f t="shared" si="2"/>
-        <v>0.2873563218390805</v>
+        <v>0.21126760563380284</v>
       </c>
       <c r="F21" s="10">
         <f t="shared" si="2"/>
@@ -1747,35 +1747,35 @@
       </c>
       <c r="G21" s="10">
         <f t="shared" si="2"/>
-        <v>0.1773049645390071</v>
+        <v>0.23316062176165803</v>
       </c>
       <c r="H21" s="10">
         <f t="shared" si="2"/>
-        <v>4.3478260869565216E-2</v>
+        <v>2.1276595744680851E-2</v>
       </c>
       <c r="I21" s="10">
         <f t="shared" si="2"/>
-        <v>4.3478260869565216E-2</v>
+        <v>3.7037037037037035E-2</v>
       </c>
       <c r="J21" s="10">
         <f t="shared" si="2"/>
-        <v>1.4492753623188409E-2</v>
+        <v>1.4925373134328361E-2</v>
       </c>
       <c r="K21" s="10">
         <f t="shared" si="2"/>
-        <v>0.32751091703056773</v>
+        <v>0.26627218934911245</v>
       </c>
       <c r="L21" s="10">
         <f t="shared" si="2"/>
-        <v>0.30120481927710846</v>
+        <v>8.771929824561403E-2</v>
       </c>
       <c r="N21" s="9">
         <f t="shared" ref="N21:N30" si="3">AVERAGE(B21:L21)</f>
-        <v>0.13248984221947183</v>
+        <v>0.10079034937866908</v>
       </c>
       <c r="O21" s="9">
         <f t="shared" ref="O21:O30" si="4">SUM(B21:L21)</f>
-        <v>1.45738826441419</v>
+        <v>1.1086938431653599</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.45">
@@ -1788,15 +1788,15 @@
       </c>
       <c r="C22" s="10">
         <f t="shared" si="2"/>
-        <v>0.19823788546255508</v>
+        <v>0.16363636363636364</v>
       </c>
       <c r="D22" s="10">
         <f t="shared" si="2"/>
-        <v>0.17241379310344829</v>
+        <v>0.13043478260869565</v>
       </c>
       <c r="E22" s="10">
         <f t="shared" si="2"/>
-        <v>0.2873563218390805</v>
+        <v>0.21126760563380284</v>
       </c>
       <c r="F22" s="10">
         <f t="shared" si="2"/>
@@ -1804,35 +1804,35 @@
       </c>
       <c r="G22" s="10">
         <f t="shared" si="2"/>
-        <v>0.1773049645390071</v>
+        <v>0.23316062176165803</v>
       </c>
       <c r="H22" s="10">
         <f t="shared" si="2"/>
-        <v>4.3478260869565216E-2</v>
+        <v>6.3829787234042562E-2</v>
       </c>
       <c r="I22" s="10">
         <f t="shared" si="2"/>
-        <v>4.3478260869565216E-2</v>
+        <v>3.7037037037037035E-2</v>
       </c>
       <c r="J22" s="10">
         <f t="shared" si="2"/>
-        <v>0.21739130434782614</v>
+        <v>7.4626865671641798E-2</v>
       </c>
       <c r="K22" s="10">
         <f t="shared" si="2"/>
-        <v>0.32751091703056773</v>
+        <v>0.26627218934911245</v>
       </c>
       <c r="L22" s="10">
         <f t="shared" si="2"/>
-        <v>0.30120481927710846</v>
+        <v>8.771929824561403E-2</v>
       </c>
       <c r="N22" s="9">
         <f t="shared" si="3"/>
-        <v>0.17685552253373119</v>
+        <v>0.13136534288275339</v>
       </c>
       <c r="O22" s="9">
         <f t="shared" si="4"/>
-        <v>1.945410747871043</v>
+        <v>1.4450187717102874</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.45">
@@ -1845,15 +1845,15 @@
       </c>
       <c r="C23" s="10">
         <f t="shared" si="2"/>
-        <v>1.3215859030837005E-2</v>
+        <v>1.8181818181818181E-2</v>
       </c>
       <c r="D23" s="10">
         <f t="shared" si="2"/>
-        <v>3.4482758620689655E-2</v>
+        <v>4.3478260869565216E-2</v>
       </c>
       <c r="E23" s="10">
         <f t="shared" si="2"/>
-        <v>5.7471264367816098E-2</v>
+        <v>7.0422535211267609E-2</v>
       </c>
       <c r="F23" s="10">
         <f t="shared" si="2"/>
@@ -1861,35 +1861,35 @@
       </c>
       <c r="G23" s="10">
         <f t="shared" si="2"/>
-        <v>0.1773049645390071</v>
+        <v>7.7720207253886009E-2</v>
       </c>
       <c r="H23" s="10">
         <f t="shared" si="2"/>
-        <v>4.3478260869565216E-2</v>
+        <v>6.3829787234042562E-2</v>
       </c>
       <c r="I23" s="10">
         <f t="shared" si="2"/>
-        <v>4.3478260869565216E-2</v>
+        <v>3.7037037037037035E-2</v>
       </c>
       <c r="J23" s="10">
         <f t="shared" si="2"/>
-        <v>7.2463768115942045E-2</v>
+        <v>7.4626865671641798E-2</v>
       </c>
       <c r="K23" s="10">
         <f t="shared" si="2"/>
-        <v>6.5502183406113537E-2</v>
+        <v>8.8757396449704151E-2</v>
       </c>
       <c r="L23" s="10">
         <f t="shared" si="2"/>
-        <v>6.0240963855421693E-2</v>
+        <v>8.771929824561403E-2</v>
       </c>
       <c r="N23" s="9">
         <f t="shared" si="3"/>
-        <v>7.4970227655206986E-2</v>
+        <v>7.443703878971783E-2</v>
       </c>
       <c r="O23" s="9">
         <f t="shared" si="4"/>
-        <v>0.82467250420727689</v>
+        <v>0.8188074266868961</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.45">
@@ -1902,15 +1902,15 @@
       </c>
       <c r="C24" s="10">
         <f t="shared" si="2"/>
-        <v>2.2026431718061675E-2</v>
+        <v>1.8181818181818181E-2</v>
       </c>
       <c r="D24" s="10">
         <f t="shared" si="2"/>
-        <v>5.7471264367816091E-2</v>
+        <v>4.3478260869565216E-2</v>
       </c>
       <c r="E24" s="10">
         <f t="shared" si="2"/>
-        <v>1.149425287356322E-2</v>
+        <v>1.4084507042253523E-2</v>
       </c>
       <c r="F24" s="10">
         <f t="shared" si="2"/>
@@ -1918,35 +1918,35 @@
       </c>
       <c r="G24" s="10">
         <f t="shared" si="2"/>
-        <v>7.0921985815602844E-3</v>
+        <v>1.5544041450777202E-2</v>
       </c>
       <c r="H24" s="10">
         <f t="shared" si="2"/>
-        <v>4.3478260869565216E-2</v>
+        <v>6.3829787234042562E-2</v>
       </c>
       <c r="I24" s="10">
         <f t="shared" si="2"/>
-        <v>4.3478260869565216E-2</v>
+        <v>3.7037037037037035E-2</v>
       </c>
       <c r="J24" s="10">
         <f t="shared" si="2"/>
-        <v>7.2463768115942045E-2</v>
+        <v>7.4626865671641798E-2</v>
       </c>
       <c r="K24" s="10">
         <f t="shared" si="2"/>
-        <v>2.1834061135371178E-2</v>
+        <v>2.9585798816568049E-2</v>
       </c>
       <c r="L24" s="10">
         <f t="shared" si="2"/>
-        <v>6.0240963855421693E-2</v>
+        <v>8.771929824561403E-2</v>
       </c>
       <c r="N24" s="9">
         <f t="shared" si="3"/>
-        <v>3.9692152992653273E-2</v>
+        <v>4.3738330461966998E-2</v>
       </c>
       <c r="O24" s="9">
         <f t="shared" si="4"/>
-        <v>0.43661368291918601</v>
+        <v>0.48112163508163697</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.45">
@@ -1959,15 +1959,15 @@
       </c>
       <c r="C25" s="10">
         <f t="shared" si="2"/>
-        <v>1.3215859030837005E-2</v>
+        <v>1.8181818181818181E-2</v>
       </c>
       <c r="D25" s="10">
         <f t="shared" si="2"/>
-        <v>3.4482758620689655E-2</v>
+        <v>4.3478260869565216E-2</v>
       </c>
       <c r="E25" s="10">
         <f t="shared" si="2"/>
-        <v>1.149425287356322E-2</v>
+        <v>7.0422535211267609E-2</v>
       </c>
       <c r="F25" s="10">
         <f t="shared" si="2"/>
@@ -1975,35 +1975,35 @@
       </c>
       <c r="G25" s="10">
         <f t="shared" si="2"/>
-        <v>3.5460992907801421E-2</v>
+        <v>7.7720207253886009E-2</v>
       </c>
       <c r="H25" s="10">
         <f t="shared" si="2"/>
-        <v>4.3478260869565216E-2</v>
+        <v>0.19148936170212766</v>
       </c>
       <c r="I25" s="10">
         <f t="shared" si="2"/>
-        <v>4.3478260869565216E-2</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="J25" s="10">
         <f t="shared" si="2"/>
-        <v>1.4492753623188409E-2</v>
+        <v>7.4626865671641798E-2</v>
       </c>
       <c r="K25" s="10">
         <f t="shared" si="2"/>
-        <v>2.1834061135371178E-2</v>
+        <v>8.8757396449704151E-2</v>
       </c>
       <c r="L25" s="10">
         <f t="shared" si="2"/>
-        <v>6.0240963855421693E-2</v>
+        <v>8.771929824561403E-2</v>
       </c>
       <c r="N25" s="9">
         <f t="shared" si="3"/>
-        <v>4.8655671301665676E-2</v>
+        <v>9.2776461384459552E-2</v>
       </c>
       <c r="O25" s="9">
         <f t="shared" si="4"/>
-        <v>0.53521238431832241</v>
+        <v>1.0205410752290551</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.45">
@@ -2016,15 +2016,15 @@
       </c>
       <c r="C26" s="10">
         <f t="shared" si="2"/>
-        <v>6.6079295154185022E-2</v>
+        <v>0.16363636363636364</v>
       </c>
       <c r="D26" s="10">
         <f t="shared" si="2"/>
-        <v>0.17241379310344829</v>
+        <v>0.13043478260869565</v>
       </c>
       <c r="E26" s="10">
         <f t="shared" si="2"/>
-        <v>5.7471264367816098E-2</v>
+        <v>7.0422535211267609E-2</v>
       </c>
       <c r="F26" s="10">
         <f t="shared" si="2"/>
@@ -2032,35 +2032,35 @@
       </c>
       <c r="G26" s="10">
         <f t="shared" si="2"/>
-        <v>3.5460992907801421E-2</v>
+        <v>2.5906735751295335E-2</v>
       </c>
       <c r="H26" s="10">
         <f t="shared" si="2"/>
-        <v>4.3478260869565216E-2</v>
+        <v>6.3829787234042562E-2</v>
       </c>
       <c r="I26" s="10">
         <f t="shared" si="2"/>
-        <v>4.3478260869565216E-2</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="J26" s="10">
         <f t="shared" si="2"/>
-        <v>1.4492753623188409E-2</v>
+        <v>7.4626865671641798E-2</v>
       </c>
       <c r="K26" s="10">
         <f t="shared" si="2"/>
-        <v>1.3100436681222708E-2</v>
+        <v>1.7751479289940832E-2</v>
       </c>
       <c r="L26" s="10">
         <f t="shared" si="2"/>
-        <v>1.204819277108434E-2</v>
+        <v>8.771929824561403E-2</v>
       </c>
       <c r="N26" s="9">
         <f t="shared" si="3"/>
-        <v>5.0459770080017827E-2</v>
+        <v>7.6588470844753814E-2</v>
       </c>
       <c r="O26" s="9">
         <f t="shared" si="4"/>
-        <v>0.55505747088019608</v>
+        <v>0.84247317929229193</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.45">
@@ -2073,15 +2073,15 @@
       </c>
       <c r="C27" s="10">
         <f t="shared" si="2"/>
-        <v>6.6079295154185022E-2</v>
+        <v>5.454545454545455E-2</v>
       </c>
       <c r="D27" s="10">
         <f t="shared" si="2"/>
-        <v>0.17241379310344829</v>
+        <v>0.13043478260869565</v>
       </c>
       <c r="E27" s="10">
         <f t="shared" si="2"/>
-        <v>5.7471264367816098E-2</v>
+        <v>7.0422535211267609E-2</v>
       </c>
       <c r="F27" s="10">
         <f t="shared" si="2"/>
@@ -2089,35 +2089,35 @@
       </c>
       <c r="G27" s="10">
         <f t="shared" si="2"/>
-        <v>3.5460992907801421E-2</v>
+        <v>2.5906735751295335E-2</v>
       </c>
       <c r="H27" s="10">
         <f t="shared" si="2"/>
-        <v>4.3478260869565216E-2</v>
+        <v>2.1276595744680851E-2</v>
       </c>
       <c r="I27" s="10">
         <f t="shared" si="2"/>
-        <v>4.3478260869565216E-2</v>
+        <v>3.7037037037037035E-2</v>
       </c>
       <c r="J27" s="10">
         <f t="shared" si="2"/>
-        <v>1.4492753623188409E-2</v>
+        <v>1.4925373134328361E-2</v>
       </c>
       <c r="K27" s="10">
         <f t="shared" si="2"/>
-        <v>1.3100436681222708E-2</v>
+        <v>1.7751479289940832E-2</v>
       </c>
       <c r="L27" s="10">
         <f t="shared" si="2"/>
-        <v>1.204819277108434E-2</v>
+        <v>1.7543859649122806E-2</v>
       </c>
       <c r="N27" s="9">
         <f t="shared" si="3"/>
-        <v>5.0459770080017827E-2</v>
+        <v>4.426164304583112E-2</v>
       </c>
       <c r="O27" s="9">
         <f t="shared" si="4"/>
-        <v>0.55505747088019608</v>
+        <v>0.48687807350414231</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.45">
@@ -2130,15 +2130,15 @@
       </c>
       <c r="C28" s="10">
         <f t="shared" si="2"/>
-        <v>0.33039647577092512</v>
+        <v>0.27272727272727276</v>
       </c>
       <c r="D28" s="10">
         <f t="shared" si="2"/>
-        <v>5.7471264367816091E-2</v>
+        <v>0.13043478260869565</v>
       </c>
       <c r="E28" s="10">
         <f t="shared" si="2"/>
-        <v>5.7471264367816098E-2</v>
+        <v>7.0422535211267609E-2</v>
       </c>
       <c r="F28" s="10">
         <f t="shared" si="2"/>
@@ -2146,35 +2146,35 @@
       </c>
       <c r="G28" s="10">
         <f t="shared" si="2"/>
-        <v>0.1773049645390071</v>
+        <v>7.7720207253886009E-2</v>
       </c>
       <c r="H28" s="10">
         <f t="shared" si="2"/>
-        <v>0.21739130434782608</v>
+        <v>6.3829787234042562E-2</v>
       </c>
       <c r="I28" s="10">
         <f t="shared" si="2"/>
-        <v>0.21739130434782608</v>
+        <v>0.18518518518518517</v>
       </c>
       <c r="J28" s="10">
         <f t="shared" si="2"/>
-        <v>7.2463768115942045E-2</v>
+        <v>7.4626865671641798E-2</v>
       </c>
       <c r="K28" s="10">
         <f t="shared" si="2"/>
-        <v>6.5502183406113537E-2</v>
+        <v>8.8757396449704151E-2</v>
       </c>
       <c r="L28" s="10">
         <f t="shared" si="2"/>
-        <v>6.0240963855421693E-2</v>
+        <v>8.771929824561403E-2</v>
       </c>
       <c r="N28" s="9">
         <f t="shared" si="3"/>
-        <v>0.11882184883865071</v>
+        <v>0.10025728860852488</v>
       </c>
       <c r="O28" s="9">
         <f t="shared" si="4"/>
-        <v>1.3070403372251578</v>
+        <v>1.1028301746937736</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.45">
@@ -2187,15 +2187,15 @@
       </c>
       <c r="C29" s="10">
         <f t="shared" si="2"/>
-        <v>1.3215859030837005E-2</v>
+        <v>1.8181818181818181E-2</v>
       </c>
       <c r="D29" s="10">
         <f t="shared" si="2"/>
-        <v>3.4482758620689655E-2</v>
+        <v>4.3478260869565216E-2</v>
       </c>
       <c r="E29" s="10">
         <f t="shared" si="2"/>
-        <v>5.7471264367816098E-2</v>
+        <v>7.0422535211267609E-2</v>
       </c>
       <c r="F29" s="10">
         <f t="shared" si="2"/>
@@ -2203,35 +2203,35 @@
       </c>
       <c r="G29" s="10">
         <f t="shared" si="2"/>
-        <v>0.10638297872340426</v>
+        <v>7.7720207253886009E-2</v>
       </c>
       <c r="H29" s="10">
         <f t="shared" si="2"/>
-        <v>0.21739130434782608</v>
+        <v>0.31914893617021278</v>
       </c>
       <c r="I29" s="10">
         <f t="shared" si="2"/>
-        <v>0.21739130434782608</v>
+        <v>0.18518518518518517</v>
       </c>
       <c r="J29" s="10">
         <f t="shared" si="2"/>
-        <v>7.2463768115942045E-2</v>
+        <v>7.4626865671641798E-2</v>
       </c>
       <c r="K29" s="10">
         <f t="shared" si="2"/>
-        <v>6.5502183406113537E-2</v>
+        <v>8.8757396449704151E-2</v>
       </c>
       <c r="L29" s="10">
         <f t="shared" si="2"/>
-        <v>6.0240963855421693E-2</v>
+        <v>0.26315789473684209</v>
       </c>
       <c r="N29" s="9">
         <f t="shared" si="3"/>
-        <v>0.11361031704340668</v>
+        <v>0.14053183658106547</v>
       </c>
       <c r="O29" s="9">
         <f t="shared" si="4"/>
-        <v>1.2497134874774736</v>
+        <v>1.54585020239172</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.45">
@@ -2244,15 +2244,15 @@
       </c>
       <c r="C30" s="10">
         <f t="shared" si="2"/>
-        <v>1.3215859030837005E-2</v>
+        <v>5.454545454545455E-2</v>
       </c>
       <c r="D30" s="10">
         <f t="shared" si="2"/>
-        <v>3.4482758620689655E-2</v>
+        <v>0.13043478260869565</v>
       </c>
       <c r="E30" s="10">
         <f t="shared" si="2"/>
-        <v>5.7471264367816098E-2</v>
+        <v>7.0422535211267609E-2</v>
       </c>
       <c r="F30" s="10">
         <f t="shared" si="2"/>
@@ -2260,35 +2260,35 @@
       </c>
       <c r="G30" s="10">
         <f t="shared" si="2"/>
-        <v>3.5460992907801421E-2</v>
+        <v>7.7720207253886009E-2</v>
       </c>
       <c r="H30" s="10">
         <f t="shared" si="2"/>
-        <v>0.21739130434782608</v>
+        <v>6.3829787234042562E-2</v>
       </c>
       <c r="I30" s="10">
         <f t="shared" si="2"/>
-        <v>0.21739130434782608</v>
+        <v>0.18518518518518517</v>
       </c>
       <c r="J30" s="10">
         <f t="shared" si="2"/>
-        <v>7.2463768115942045E-2</v>
+        <v>7.4626865671641798E-2</v>
       </c>
       <c r="K30" s="10">
         <f t="shared" si="2"/>
-        <v>6.5502183406113537E-2</v>
+        <v>2.9585798816568049E-2</v>
       </c>
       <c r="L30" s="10">
         <f t="shared" si="2"/>
-        <v>6.0240963855421693E-2</v>
+        <v>8.771929824561403E-2</v>
       </c>
       <c r="N30" s="9">
         <f t="shared" si="3"/>
-        <v>9.9890136514715511E-2</v>
+        <v>9.9931001584904769E-2</v>
       </c>
       <c r="O30" s="9">
         <f t="shared" si="4"/>
-        <v>1.0987915016618706</v>
+        <v>1.0992410174339524</v>
       </c>
     </row>
     <row r="34" spans="9:11" x14ac:dyDescent="0.45">

--- a/Metadata.xlsx
+++ b/Metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mnxan\OneDrive\Documents\GitHub\Huang_lechuan_todphilly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D90E6095-9DD6-4192-99FF-E32EB06E0A60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFF1C992-17D2-4760-BAE9-2DC25FE527C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -142,9 +142,6 @@
 2. Divided results into 10 quantiles</t>
   </si>
   <si>
-    <t>Score for the district where the station is located</t>
-  </si>
-  <si>
     <t>em_surp_sc</t>
   </si>
   <si>
@@ -190,9 +187,6 @@
   </si>
   <si>
     <t>Not be gentrified</t>
-  </si>
-  <si>
-    <t>Likelyhood of not being gentrified after the TOD project</t>
   </si>
   <si>
     <t>Hand Clean</t>
@@ -329,6 +323,12 @@
     <t>1. Score is calculated based on the Multi-Criterion Decision Analysis (MCDA)
 2. Weighting is based on Analytical Hierarchy Process (APH)
 3. See tab "APH Matrix" for more detail</t>
+  </si>
+  <si>
+    <t>Score for number of jobs for the district where the station is located</t>
+  </si>
+  <si>
+    <t>Likelihood of not being gentrified after the TOD project</t>
   </si>
 </sst>
 </file>
@@ -704,8 +704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -732,7 +732,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="24.4" customHeight="1" x14ac:dyDescent="0.45">
@@ -754,10 +754,10 @@
         <v>8</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
@@ -794,7 +794,7 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="57" x14ac:dyDescent="0.45">
@@ -808,7 +808,7 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="270.75" x14ac:dyDescent="0.45">
@@ -830,7 +830,7 @@
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
@@ -841,170 +841,170 @@
         <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>82</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
         <v>29</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>30</v>
       </c>
-      <c r="C11" t="s">
-        <v>31</v>
-      </c>
       <c r="D11" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E11" s="18"/>
     </row>
     <row r="12" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" t="s">
         <v>32</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>33</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="18" t="s">
         <v>35</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" t="s">
         <v>38</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>39</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="E13" s="18"/>
     </row>
     <row r="14" spans="1:5" ht="57" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" t="s">
         <v>42</v>
       </c>
-      <c r="B14" t="s">
-        <v>43</v>
-      </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E14" s="18"/>
     </row>
     <row r="15" spans="1:5" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="C15" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" t="s">
         <v>52</v>
       </c>
-      <c r="B16" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="D16" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>56</v>
-      </c>
       <c r="E16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" t="s">
         <v>58</v>
       </c>
-      <c r="B17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C17" t="s">
-        <v>60</v>
-      </c>
       <c r="D17" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="57" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" t="s">
         <v>61</v>
       </c>
-      <c r="B18" t="s">
+      <c r="D18" s="5" t="s">
         <v>62</v>
-      </c>
-      <c r="C18" t="s">
-        <v>63</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>64</v>
       </c>
       <c r="E18" s="18"/>
     </row>
     <row r="19" spans="1:5" ht="57" x14ac:dyDescent="0.45">
       <c r="A19" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B19" t="s">
+      <c r="D19" s="5" t="s">
         <v>66</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>68</v>
       </c>
       <c r="E19" s="18"/>
     </row>
     <row r="20" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A20" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" t="s">
         <v>80</v>
       </c>
-      <c r="B20" t="s">
+      <c r="D20" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="C20" t="s">
-        <v>82</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1024,8 +1024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8019F163-394D-4655-8D95-D957C39F411D}">
   <dimension ref="A1:O45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1042,31 +1042,31 @@
         <v>25</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H1" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="I1" s="11" t="s">
-        <v>52</v>
-      </c>
       <c r="J1" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L1" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="M1" s="14"/>
       <c r="N1" s="15"/>
@@ -1152,7 +1152,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A4" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" s="9">
         <f>MINVERSE(D$2)</f>
@@ -1193,7 +1193,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A5" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B5" s="9">
         <f>MINVERSE(E$2)</f>
@@ -1235,7 +1235,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A6" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B6" s="9">
         <f>MINVERSE(F$2)</f>
@@ -1278,7 +1278,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A7" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B7" s="9">
         <f>MINVERSE(G$2)</f>
@@ -1322,7 +1322,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A8" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B8" s="9">
         <f>MINVERSE(H$2)</f>
@@ -1367,7 +1367,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A9" s="11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B9" s="9">
         <f>MINVERSE(I$2)</f>
@@ -1413,7 +1413,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A10" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B10" s="9">
         <f>MINVERSE(J$2)</f>
@@ -1460,7 +1460,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A11" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B11" s="9">
         <f>MINVERSE(K$2)</f>
@@ -1508,7 +1508,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A12" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B12" s="9">
         <f>MINVERSE(L$2)</f>
@@ -1560,7 +1560,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A14" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B14" s="12">
         <f>SUM(B2:B12)</f>
@@ -1618,7 +1618,7 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.45">
@@ -1630,38 +1630,38 @@
         <v>25</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H19" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="I19" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="I19" s="11" t="s">
-        <v>52</v>
-      </c>
       <c r="J19" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K19" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L19" s="11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="M19" s="11"/>
       <c r="N19" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="O19" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.45">
@@ -1780,7 +1780,7 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A22" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B22" s="10">
         <f t="shared" si="2"/>
@@ -1837,7 +1837,7 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A23" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B23" s="10">
         <f t="shared" si="2"/>
@@ -1894,7 +1894,7 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A24" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B24" s="10">
         <f t="shared" si="2"/>
@@ -1951,7 +1951,7 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A25" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B25" s="10">
         <f t="shared" si="2"/>
@@ -2008,7 +2008,7 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A26" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B26" s="10">
         <f t="shared" si="2"/>
@@ -2065,7 +2065,7 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A27" s="11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B27" s="10">
         <f t="shared" si="2"/>
@@ -2122,7 +2122,7 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A28" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B28" s="10">
         <f t="shared" si="2"/>
@@ -2179,7 +2179,7 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A29" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B29" s="10">
         <f t="shared" si="2"/>
@@ -2236,7 +2236,7 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A30" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B30" s="10">
         <f t="shared" si="2"/>
